--- a/nodes_source_analyses/energy/energy_chp_ultra_supercritical_lignite.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_chp_ultra_supercritical_lignite.central_producer.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="320" yWindow="0" windowWidth="26360" windowHeight="15840" tabRatio="762"/>
+    <workbookView xWindow="320" yWindow="460" windowWidth="26360" windowHeight="15840" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -588,9 +596,6 @@
       </rPr>
       <t>We</t>
     </r>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Technical</t>
@@ -732,6 +737,10 @@
   <si>
     <t>energy_chp_ultra_supercritical_lignite.central_producer.ad</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -742,7 +751,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -874,11 +883,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <u/>
@@ -1520,7 +1524,7 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1531,54 +1535,54 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1661,26 +1665,26 @@
     </xf>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1705,7 +1709,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1719,7 +1723,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1727,34 +1731,34 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1998,80 +2002,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>139700</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSsource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2266,7 +2205,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2703,45 +2642,45 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="25" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="17" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="17"/>
+    <col min="1" max="1" width="3.42578125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="17" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="23" customFormat="1">
+    <row r="1" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="24"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>98</v>
@@ -2750,7 +2689,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>21</v>
@@ -2759,29 +2698,29 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="108" t="s">
         <v>100</v>
       </c>
       <c r="C9" s="109"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="110"/>
       <c r="C10" s="111"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="110" t="s">
         <v>101</v>
@@ -2790,33 +2729,33 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="110"/>
       <c r="C12" s="113" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="110"/>
       <c r="C13" s="114" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="110"/>
       <c r="C14" s="111" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="110"/>
       <c r="C15" s="111"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="110" t="s">
         <v>106</v>
@@ -2825,49 +2764,49 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="110"/>
       <c r="C17" s="116" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="110"/>
       <c r="C18" s="117" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="110"/>
       <c r="C19" s="118" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="119"/>
       <c r="C20" s="120" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="119"/>
       <c r="C21" s="121" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="119"/>
       <c r="C22" s="122" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="119"/>
       <c r="C23" s="123" t="s">
         <v>114</v>
@@ -2876,46 +2815,41 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K43"/>
   <sheetViews>
-    <sheetView topLeftCell="D12" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="33" customWidth="1"/>
-    <col min="2" max="2" width="2.25" style="33" customWidth="1"/>
-    <col min="3" max="3" width="46.875" style="33" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="33" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="33" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="33" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="2.28515625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="33" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="33" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="33" customWidth="1"/>
     <col min="7" max="7" width="45" style="33" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="33" customWidth="1"/>
-    <col min="9" max="9" width="50.5" style="33" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="33" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="33"/>
+    <col min="8" max="8" width="5.140625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="50.42578125" style="33" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="33" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="31"/>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="153" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="C2" s="154"/>
       <c r="D2" s="154"/>
@@ -2923,7 +2857,7 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="156"/>
       <c r="C3" s="157"/>
       <c r="D3" s="157"/>
@@ -2931,7 +2865,7 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="156"/>
       <c r="C4" s="157"/>
       <c r="D4" s="157"/>
@@ -2939,7 +2873,7 @@
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="159"/>
       <c r="C5" s="160"/>
       <c r="D5" s="160"/>
@@ -2947,10 +2881,10 @@
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="2:11" ht="16" thickBot="1">
+    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D6" s="31"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="34"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -2961,7 +2895,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="35"/>
     </row>
-    <row r="8" spans="2:11" s="40" customFormat="1" ht="18">
+    <row r="8" spans="2:11" s="40" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="136"/>
       <c r="C8" s="132" t="s">
         <v>34</v>
@@ -2982,7 +2916,7 @@
       </c>
       <c r="J8" s="134"/>
     </row>
-    <row r="9" spans="2:11" s="40" customFormat="1" ht="18">
+    <row r="9" spans="2:11" s="40" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B9" s="19"/>
       <c r="C9" s="14"/>
       <c r="D9" s="27"/>
@@ -2993,10 +2927,10 @@
       <c r="I9" s="14"/>
       <c r="J9" s="41"/>
     </row>
-    <row r="10" spans="2:11" s="40" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:11" s="40" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="19"/>
       <c r="C10" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="14"/>
@@ -3006,7 +2940,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="41"/>
     </row>
-    <row r="11" spans="2:11" s="40" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="2:11" s="40" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="19"/>
       <c r="C11" s="32" t="s">
         <v>35</v>
@@ -3025,7 +2959,7 @@
       </c>
       <c r="J11" s="41"/>
     </row>
-    <row r="12" spans="2:11" s="40" customFormat="1" ht="19" thickBot="1">
+    <row r="12" spans="2:11" s="40" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="19"/>
       <c r="C12" s="32" t="s">
         <v>69</v>
@@ -3044,7 +2978,7 @@
       </c>
       <c r="J12" s="41"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="36"/>
       <c r="C13" s="32" t="s">
         <v>37</v>
@@ -3064,7 +2998,7 @@
       <c r="J13" s="135"/>
       <c r="K13" s="31"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="36"/>
       <c r="C14" s="32" t="s">
         <v>38</v>
@@ -3084,7 +3018,7 @@
       <c r="J14" s="135"/>
       <c r="K14" s="31"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="36"/>
       <c r="C15" s="32" t="s">
         <v>40</v>
@@ -3104,7 +3038,7 @@
       <c r="J15" s="135"/>
       <c r="K15" s="31"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="36"/>
       <c r="C16" s="32" t="s">
         <v>11</v>
@@ -3124,7 +3058,7 @@
       <c r="J16" s="135"/>
       <c r="K16" s="31"/>
     </row>
-    <row r="17" spans="2:11" ht="16" thickBot="1">
+    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="36"/>
       <c r="C17" s="32" t="s">
         <v>43</v>
@@ -3144,7 +3078,7 @@
       <c r="J17" s="135"/>
       <c r="K17" s="31"/>
     </row>
-    <row r="18" spans="2:11" ht="16" thickBot="1">
+    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="36"/>
       <c r="C18" s="32" t="s">
         <v>44</v>
@@ -3164,7 +3098,7 @@
       <c r="J18" s="135"/>
       <c r="K18" s="31"/>
     </row>
-    <row r="19" spans="2:11" ht="16" thickBot="1">
+    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="36"/>
       <c r="C19" s="32" t="s">
         <v>45</v>
@@ -3186,7 +3120,7 @@
       </c>
       <c r="J19" s="135"/>
     </row>
-    <row r="20" spans="2:11" ht="16" thickBot="1">
+    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="36"/>
       <c r="C20" s="32" t="s">
         <v>46</v>
@@ -3207,7 +3141,7 @@
       </c>
       <c r="J20" s="135"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="36"/>
       <c r="C21" s="31"/>
       <c r="D21" s="138"/>
@@ -3218,10 +3152,10 @@
       <c r="I21" s="31"/>
       <c r="J21" s="135"/>
     </row>
-    <row r="22" spans="2:11" ht="16" thickBot="1">
+    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="36"/>
       <c r="C22" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D22" s="138"/>
       <c r="E22" s="141"/>
@@ -3231,7 +3165,7 @@
       <c r="I22" s="31"/>
       <c r="J22" s="135"/>
     </row>
-    <row r="23" spans="2:11" ht="16" thickBot="1">
+    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="36"/>
       <c r="C23" s="32" t="s">
         <v>47</v>
@@ -3253,7 +3187,7 @@
       </c>
       <c r="J23" s="135"/>
     </row>
-    <row r="24" spans="2:11" ht="16" thickBot="1">
+    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="36"/>
       <c r="C24" s="32" t="s">
         <v>48</v>
@@ -3274,7 +3208,7 @@
       </c>
       <c r="J24" s="135"/>
     </row>
-    <row r="25" spans="2:11" ht="16" thickBot="1">
+    <row r="25" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="36"/>
       <c r="C25" s="32" t="s">
         <v>13</v>
@@ -3295,7 +3229,7 @@
       </c>
       <c r="J25" s="135"/>
     </row>
-    <row r="26" spans="2:11" ht="16" thickBot="1">
+    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="36"/>
       <c r="C26" s="32" t="s">
         <v>49</v>
@@ -3316,7 +3250,7 @@
       </c>
       <c r="J26" s="135"/>
     </row>
-    <row r="27" spans="2:11" ht="16" thickBot="1">
+    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="36"/>
       <c r="C27" s="32" t="s">
         <v>50</v>
@@ -3338,7 +3272,7 @@
       </c>
       <c r="J27" s="135"/>
     </row>
-    <row r="28" spans="2:11" ht="16" thickBot="1">
+    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="36"/>
       <c r="C28" s="32" t="s">
         <v>51</v>
@@ -3359,7 +3293,7 @@
       </c>
       <c r="J28" s="135"/>
     </row>
-    <row r="29" spans="2:11" ht="16" thickBot="1">
+    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="36"/>
       <c r="C29" s="32" t="s">
         <v>52</v>
@@ -3380,7 +3314,7 @@
       </c>
       <c r="J29" s="135"/>
     </row>
-    <row r="30" spans="2:11" ht="16" thickBot="1">
+    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="36"/>
       <c r="C30" s="32" t="s">
         <v>55</v>
@@ -3401,7 +3335,7 @@
       </c>
       <c r="J30" s="135"/>
     </row>
-    <row r="31" spans="2:11" ht="16" thickBot="1">
+    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="36"/>
       <c r="C31" s="32" t="s">
         <v>42</v>
@@ -3420,7 +3354,7 @@
       </c>
       <c r="J31" s="135"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="36"/>
       <c r="C32" s="31"/>
       <c r="D32" s="138"/>
@@ -3431,7 +3365,7 @@
       <c r="I32" s="31"/>
       <c r="J32" s="135"/>
     </row>
-    <row r="33" spans="2:10" ht="16" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="36"/>
       <c r="C33" s="14" t="s">
         <v>8</v>
@@ -3444,7 +3378,7 @@
       <c r="I33" s="31"/>
       <c r="J33" s="135"/>
     </row>
-    <row r="34" spans="2:10" ht="16" thickBot="1">
+    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="36"/>
       <c r="C34" s="32" t="s">
         <v>41</v>
@@ -3466,7 +3400,7 @@
       </c>
       <c r="J34" s="135"/>
     </row>
-    <row r="35" spans="2:10" ht="16" thickBot="1">
+    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="36"/>
       <c r="C35" s="32" t="s">
         <v>53</v>
@@ -3488,7 +3422,7 @@
       </c>
       <c r="J35" s="135"/>
     </row>
-    <row r="36" spans="2:10" ht="16" thickBot="1">
+    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="36"/>
       <c r="C36" s="32" t="s">
         <v>54</v>
@@ -3506,11 +3440,11 @@
       </c>
       <c r="H36" s="32"/>
       <c r="I36" s="151" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J36" s="135"/>
     </row>
-    <row r="37" spans="2:10" ht="16" thickBot="1">
+    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="36"/>
       <c r="C37" s="32" t="s">
         <v>39</v>
@@ -3529,7 +3463,7 @@
       </c>
       <c r="J37" s="135"/>
     </row>
-    <row r="38" spans="2:10" ht="16" thickBot="1">
+    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="36"/>
       <c r="C38" s="44" t="s">
         <v>71</v>
@@ -3546,7 +3480,7 @@
       </c>
       <c r="J38" s="135"/>
     </row>
-    <row r="39" spans="2:10" ht="16" thickBot="1">
+    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="36"/>
       <c r="C39" s="44" t="s">
         <v>72</v>
@@ -3563,7 +3497,7 @@
       </c>
       <c r="J39" s="135"/>
     </row>
-    <row r="40" spans="2:10" ht="16" thickBot="1">
+    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="36"/>
       <c r="C40" s="44" t="s">
         <v>74</v>
@@ -3580,7 +3514,7 @@
       </c>
       <c r="J40" s="135"/>
     </row>
-    <row r="41" spans="2:10" ht="16" thickBot="1">
+    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="36"/>
       <c r="C41" s="44" t="s">
         <v>75</v>
@@ -3597,7 +3531,7 @@
       </c>
       <c r="J41" s="135"/>
     </row>
-    <row r="42" spans="2:10" ht="16" thickBot="1">
+    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="36"/>
       <c r="C42" s="44" t="s">
         <v>73</v>
@@ -3614,7 +3548,7 @@
       </c>
       <c r="J42" s="135"/>
     </row>
-    <row r="43" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="43" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="38"/>
@@ -3631,43 +3565,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>139700</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>152400</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>152400</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3682,31 +3579,31 @@
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" style="70" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="70" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="70" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="70" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="70" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="70" customWidth="1"/>
-    <col min="7" max="7" width="3.125" style="70" customWidth="1"/>
-    <col min="8" max="8" width="10.75" style="70" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="70" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="70" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="70" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="70" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="70" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" style="70" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="70" customWidth="1"/>
     <col min="9" max="9" width="4" style="70" customWidth="1"/>
-    <col min="10" max="10" width="11.25" style="71" customWidth="1"/>
-    <col min="11" max="11" width="2.375" style="71" customWidth="1"/>
-    <col min="12" max="12" width="10.25" style="71" customWidth="1"/>
-    <col min="13" max="13" width="3.25" style="71" customWidth="1"/>
-    <col min="14" max="14" width="9.5" style="71" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="71" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" style="71" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="71" customWidth="1"/>
+    <col min="13" max="13" width="3.28515625" style="71" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="71" customWidth="1"/>
     <col min="15" max="15" width="3" style="70" customWidth="1"/>
     <col min="16" max="16" width="10" style="71" customWidth="1"/>
-    <col min="17" max="17" width="2.75" style="71" customWidth="1"/>
-    <col min="18" max="18" width="86.5" style="70" customWidth="1"/>
-    <col min="19" max="16384" width="10.625" style="70"/>
+    <col min="17" max="17" width="2.7109375" style="71" customWidth="1"/>
+    <col min="18" max="18" width="86.42578125" style="70" customWidth="1"/>
+    <col min="19" max="16384" width="10.7109375" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="16" thickBot="1"/>
-    <row r="2" spans="2:18">
+    <row r="1" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" s="72"/>
       <c r="C2" s="73"/>
       <c r="D2" s="73"/>
@@ -3725,7 +3622,7 @@
       <c r="Q2" s="74"/>
       <c r="R2" s="73"/>
     </row>
-    <row r="3" spans="2:18" s="20" customFormat="1">
+    <row r="3" spans="2:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="19"/>
       <c r="C3" s="124" t="s">
         <v>119</v>
@@ -3760,7 +3657,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:18">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="75"/>
       <c r="C4" s="76"/>
       <c r="D4" s="76"/>
@@ -3779,7 +3676,7 @@
       <c r="Q4" s="130"/>
       <c r="R4" s="9"/>
     </row>
-    <row r="5" spans="2:18" ht="16" thickBot="1">
+    <row r="5" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="75"/>
       <c r="C5" s="28" t="s">
         <v>120</v>
@@ -3800,7 +3697,7 @@
       <c r="Q5" s="10"/>
       <c r="R5" s="69"/>
     </row>
-    <row r="6" spans="2:18" ht="16" thickBot="1">
+    <row r="6" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="75"/>
       <c r="C6" s="78" t="s">
         <v>31</v>
@@ -3826,7 +3723,7 @@
       <c r="Q6" s="91"/>
       <c r="R6" s="69"/>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" s="75"/>
       <c r="C7" s="90"/>
       <c r="D7" s="90"/>
@@ -3845,7 +3742,7 @@
       <c r="Q7" s="91"/>
       <c r="R7" s="69"/>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" s="75"/>
       <c r="C8" s="90"/>
       <c r="D8" s="90"/>
@@ -3864,7 +3761,7 @@
       <c r="Q8" s="91"/>
       <c r="R8" s="69"/>
     </row>
-    <row r="9" spans="2:18" ht="16" thickBot="1">
+    <row r="9" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="75"/>
       <c r="C9" s="28" t="s">
         <v>8</v>
@@ -3885,7 +3782,7 @@
       <c r="Q9" s="91"/>
       <c r="R9" s="29"/>
     </row>
-    <row r="10" spans="2:18" ht="16" thickBot="1">
+    <row r="10" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="75"/>
       <c r="C10" s="92" t="s">
         <v>1</v>
@@ -3914,7 +3811,7 @@
       <c r="Q10" s="77"/>
       <c r="R10" s="69"/>
     </row>
-    <row r="11" spans="2:18" ht="16" thickBot="1">
+    <row r="11" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="75"/>
       <c r="C11" s="94" t="s">
         <v>6</v>
@@ -3946,7 +3843,7 @@
       <c r="Q11" s="77"/>
       <c r="R11" s="69"/>
     </row>
-    <row r="12" spans="2:18" ht="16" thickBot="1">
+    <row r="12" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="75"/>
       <c r="C12" s="84" t="s">
         <v>16</v>
@@ -3974,10 +3871,10 @@
       </c>
       <c r="Q12" s="91"/>
       <c r="R12" s="142" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="75"/>
       <c r="C13" s="89"/>
       <c r="D13" s="89"/>
@@ -3998,7 +3895,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="75"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
@@ -4017,7 +3914,7 @@
       <c r="Q14" s="91"/>
       <c r="R14" s="69"/>
     </row>
-    <row r="15" spans="2:18" ht="16" thickBot="1">
+    <row r="15" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="75"/>
       <c r="C15" s="13" t="s">
         <v>118</v>
@@ -4038,7 +3935,7 @@
       <c r="Q15" s="91"/>
       <c r="R15" s="69"/>
     </row>
-    <row r="16" spans="2:18" ht="16" thickBot="1">
+    <row r="16" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="75"/>
       <c r="C16" s="131" t="s">
         <v>125</v>
@@ -4063,10 +3960,10 @@
       <c r="P16" s="91"/>
       <c r="Q16" s="91"/>
       <c r="R16" s="149" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" ht="16" thickBot="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="75"/>
       <c r="C17" s="92" t="s">
         <v>9</v>
@@ -4102,7 +3999,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="16" thickBot="1">
+    <row r="18" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="75"/>
       <c r="C18" s="92" t="s">
         <v>121</v>
@@ -4130,7 +4027,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="16" thickBot="1">
+    <row r="19" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="75"/>
       <c r="C19" s="92" t="s">
         <v>122</v>
@@ -4154,10 +4051,10 @@
       <c r="P19" s="87"/>
       <c r="Q19" s="87"/>
       <c r="R19" s="107" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" ht="16" thickBot="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="75"/>
       <c r="C20" s="92" t="s">
         <v>94</v>
@@ -4185,7 +4082,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="2:18" ht="16" thickBot="1">
+    <row r="21" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="75"/>
       <c r="C21" s="92" t="s">
         <v>94</v>
@@ -4210,7 +4107,7 @@
       <c r="Q21" s="87"/>
       <c r="R21" s="69"/>
     </row>
-    <row r="22" spans="2:18" ht="16" thickBot="1">
+    <row r="22" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="75"/>
       <c r="C22" s="92" t="s">
         <v>123</v>
@@ -4235,7 +4132,7 @@
       <c r="Q22" s="91"/>
       <c r="R22" s="69"/>
     </row>
-    <row r="23" spans="2:18" ht="16" thickBot="1">
+    <row r="23" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="75"/>
       <c r="C23" s="92" t="s">
         <v>124</v>
@@ -4278,11 +4175,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4297,22 +4189,22 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="45" customWidth="1"/>
-    <col min="2" max="2" width="2.5" style="45" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="45" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="45" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="45" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="45" customWidth="1"/>
-    <col min="7" max="9" width="12.125" style="45" customWidth="1"/>
-    <col min="10" max="10" width="31.75" style="46" customWidth="1"/>
-    <col min="11" max="11" width="83.875" style="45" customWidth="1"/>
-    <col min="12" max="16384" width="33.125" style="45"/>
+    <col min="1" max="1" width="4.42578125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="45" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="45" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="45" customWidth="1"/>
+    <col min="10" max="10" width="31.7109375" style="46" customWidth="1"/>
+    <col min="11" max="11" width="83.85546875" style="45" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="47"/>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -4324,7 +4216,7 @@
       <c r="J2" s="49"/>
       <c r="K2" s="48"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="50"/>
       <c r="C3" s="51" t="s">
         <v>23</v>
@@ -4338,7 +4230,7 @@
       <c r="J3" s="52"/>
       <c r="K3" s="53"/>
     </row>
-    <row r="4" spans="2:11" ht="17" customHeight="1">
+    <row r="4" spans="2:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="50"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
@@ -4350,7 +4242,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="2:11" ht="16" customHeight="1">
+    <row r="5" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="55"/>
       <c r="C5" s="56" t="s">
         <v>32</v>
@@ -4366,19 +4258,19 @@
         <v>33</v>
       </c>
       <c r="H5" s="56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I5" s="56" t="s">
         <v>68</v>
       </c>
       <c r="J5" s="152" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K5" s="56" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="50"/>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
@@ -4390,7 +4282,7 @@
       <c r="J6" s="52"/>
       <c r="K6" s="51"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="50"/>
       <c r="C7" s="65"/>
       <c r="D7" s="57"/>
@@ -4404,17 +4296,17 @@
         <v>81</v>
       </c>
       <c r="H7" s="54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I7" s="54"/>
       <c r="J7" s="54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K7" s="104" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="50"/>
       <c r="C8" s="67" t="s">
         <v>77</v>
@@ -4428,7 +4320,7 @@
       <c r="J8" s="54"/>
       <c r="K8" s="53"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="50"/>
       <c r="C9" s="64" t="s">
         <v>6</v>
@@ -4442,7 +4334,7 @@
       <c r="J9" s="61"/>
       <c r="K9" s="57"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="50"/>
       <c r="C10" s="64"/>
       <c r="D10" s="64"/>
@@ -4454,7 +4346,7 @@
       <c r="J10" s="61"/>
       <c r="K10" s="57"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B11" s="50"/>
       <c r="C11" s="67"/>
       <c r="D11" s="59"/>
@@ -4472,13 +4364,13 @@
       </c>
       <c r="I11" s="61"/>
       <c r="J11" s="61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K11" s="62" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="50"/>
       <c r="C12" s="67" t="s">
         <v>77</v>
@@ -4492,7 +4384,7 @@
       <c r="J12" s="61"/>
       <c r="K12" s="62"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="50"/>
       <c r="C13" s="67" t="s">
         <v>92</v>
@@ -4506,7 +4398,7 @@
       <c r="J13" s="61"/>
       <c r="K13" s="57"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="50"/>
       <c r="C14" s="57" t="s">
         <v>91</v>
@@ -4520,7 +4412,7 @@
       <c r="J14" s="54"/>
       <c r="K14" s="62"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="50"/>
       <c r="C15" s="57"/>
       <c r="D15" s="57"/>
@@ -4532,7 +4424,7 @@
       <c r="J15" s="54"/>
       <c r="K15" s="62"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="50"/>
       <c r="C16" s="63"/>
       <c r="D16" s="57"/>
@@ -4550,13 +4442,13 @@
       </c>
       <c r="I16" s="53"/>
       <c r="J16" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K16" s="62" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="50"/>
       <c r="C17" s="58" t="s">
         <v>77</v>
@@ -4570,7 +4462,7 @@
       <c r="J17" s="54"/>
       <c r="K17" s="57"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="50"/>
       <c r="C18" s="58"/>
       <c r="D18" s="57"/>
@@ -4582,7 +4474,7 @@
       <c r="J18" s="54"/>
       <c r="K18" s="57"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="50"/>
       <c r="C19" s="57"/>
       <c r="D19" s="57"/>
@@ -4604,7 +4496,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="50"/>
       <c r="C20" s="65" t="s">
         <v>96</v>
@@ -4618,7 +4510,7 @@
       <c r="J20" s="54"/>
       <c r="K20" s="57"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="50"/>
       <c r="C21" s="65" t="s">
         <v>97</v>
@@ -4632,7 +4524,7 @@
       <c r="J21" s="66"/>
       <c r="K21" s="57"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="50"/>
       <c r="C22" s="57"/>
       <c r="D22" s="57"/>
@@ -4644,7 +4536,7 @@
       <c r="J22" s="66"/>
       <c r="K22" s="57"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="50"/>
       <c r="C23" s="57"/>
       <c r="D23" s="57"/>
@@ -4664,7 +4556,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="50"/>
       <c r="C24" s="65" t="s">
         <v>70</v>
@@ -4691,11 +4583,6 @@
   <ignoredErrors>
     <ignoredError sqref="G7:H7 G11 H16 H19" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4707,15 +4594,15 @@
       <selection activeCell="N91" sqref="N91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="143" customWidth="1"/>
-    <col min="2" max="2" width="4.375" style="143" customWidth="1"/>
-    <col min="3" max="16384" width="10.625" style="143"/>
+    <col min="1" max="1" width="5.42578125" style="143" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="143" customWidth="1"/>
+    <col min="3" max="16384" width="10.7109375" style="143"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="16" thickBot="1"/>
-    <row r="2" spans="2:16">
+    <row r="1" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="144"/>
       <c r="C2" s="145"/>
       <c r="D2" s="145"/>
@@ -4732,13 +4619,13 @@
       <c r="O2" s="145"/>
       <c r="P2" s="145"/>
     </row>
-    <row r="3" spans="2:16" s="20" customFormat="1">
+    <row r="3" spans="2:16" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="136"/>
       <c r="C3" s="132" t="s">
         <v>110</v>
       </c>
       <c r="D3" s="132" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E3" s="132"/>
       <c r="F3" s="132"/>
@@ -4753,7 +4640,7 @@
       <c r="O3" s="132"/>
       <c r="P3" s="132"/>
     </row>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="146"/>
       <c r="C4" s="147"/>
       <c r="D4" s="147"/>
@@ -4770,7 +4657,7 @@
       <c r="O4" s="147"/>
       <c r="P4" s="147"/>
     </row>
-    <row r="5" spans="2:16">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="146"/>
       <c r="C5" s="147"/>
       <c r="D5" s="147"/>
@@ -4787,7 +4674,7 @@
       <c r="O5" s="147"/>
       <c r="P5" s="147"/>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="146"/>
       <c r="C6" s="147" t="s">
         <v>83</v>
@@ -4806,10 +4693,10 @@
       <c r="O6" s="147"/>
       <c r="P6" s="147"/>
     </row>
-    <row r="7" spans="2:16">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="146"/>
       <c r="C7" s="147" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D7" s="147"/>
       <c r="E7" s="147"/>
@@ -4825,7 +4712,7 @@
       <c r="O7" s="147"/>
       <c r="P7" s="147"/>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="146"/>
       <c r="C8" s="147"/>
       <c r="D8" s="147"/>
@@ -4842,7 +4729,7 @@
       <c r="O8" s="147"/>
       <c r="P8" s="147"/>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="146"/>
       <c r="C9" s="147"/>
       <c r="D9" s="147"/>
@@ -4859,7 +4746,7 @@
       <c r="O9" s="147"/>
       <c r="P9" s="147"/>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="146"/>
       <c r="C10" s="147"/>
       <c r="D10" s="147"/>
@@ -4876,7 +4763,7 @@
       <c r="O10" s="147"/>
       <c r="P10" s="147"/>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="146"/>
       <c r="C11" s="147"/>
       <c r="D11" s="147"/>
@@ -4893,7 +4780,7 @@
       <c r="O11" s="147"/>
       <c r="P11" s="147"/>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="146"/>
       <c r="C12" s="147"/>
       <c r="D12" s="147"/>
@@ -4910,7 +4797,7 @@
       <c r="O12" s="147"/>
       <c r="P12" s="147"/>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="146"/>
       <c r="C13" s="147"/>
       <c r="D13" s="147"/>
@@ -4927,7 +4814,7 @@
       <c r="O13" s="147"/>
       <c r="P13" s="147"/>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="146"/>
       <c r="C14" s="147"/>
       <c r="D14" s="147"/>
@@ -4944,7 +4831,7 @@
       <c r="O14" s="147"/>
       <c r="P14" s="147"/>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" s="146"/>
       <c r="C15" s="147"/>
       <c r="D15" s="147"/>
@@ -4961,7 +4848,7 @@
       <c r="O15" s="147"/>
       <c r="P15" s="147"/>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="146"/>
       <c r="C16" s="147"/>
       <c r="D16" s="147"/>
@@ -4978,7 +4865,7 @@
       <c r="O16" s="147"/>
       <c r="P16" s="147"/>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="146"/>
       <c r="C17" s="147"/>
       <c r="D17" s="147"/>
@@ -4995,7 +4882,7 @@
       <c r="O17" s="147"/>
       <c r="P17" s="147"/>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="146"/>
       <c r="C18" s="147"/>
       <c r="D18" s="147"/>
@@ -5012,7 +4899,7 @@
       <c r="O18" s="147"/>
       <c r="P18" s="147"/>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="146"/>
       <c r="C19" s="147"/>
       <c r="D19" s="147"/>
@@ -5029,7 +4916,7 @@
       <c r="O19" s="147"/>
       <c r="P19" s="147"/>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="146"/>
       <c r="C20" s="147"/>
       <c r="D20" s="147"/>
@@ -5046,7 +4933,7 @@
       <c r="O20" s="147"/>
       <c r="P20" s="147"/>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="146"/>
       <c r="C21" s="147"/>
       <c r="D21" s="147"/>
@@ -5063,7 +4950,7 @@
       <c r="O21" s="147"/>
       <c r="P21" s="147"/>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="146"/>
       <c r="C22" s="147"/>
       <c r="D22" s="147"/>
@@ -5080,7 +4967,7 @@
       <c r="O22" s="147"/>
       <c r="P22" s="147"/>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" s="146"/>
       <c r="C23" s="147"/>
       <c r="D23" s="147"/>
@@ -5097,7 +4984,7 @@
       <c r="O23" s="147"/>
       <c r="P23" s="147"/>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="146"/>
       <c r="C24" s="147"/>
       <c r="D24" s="147"/>
@@ -5114,7 +5001,7 @@
       <c r="O24" s="147"/>
       <c r="P24" s="147"/>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="146"/>
       <c r="C25" s="147"/>
       <c r="D25" s="147"/>
@@ -5122,7 +5009,7 @@
         <v>1500</v>
       </c>
       <c r="F25" s="147" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G25" s="147"/>
       <c r="H25" s="147"/>
@@ -5135,7 +5022,7 @@
       <c r="O25" s="147"/>
       <c r="P25" s="147"/>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="146"/>
       <c r="C26" s="147"/>
       <c r="D26" s="147"/>
@@ -5152,7 +5039,7 @@
       <c r="O26" s="147"/>
       <c r="P26" s="147"/>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" s="146"/>
       <c r="C27" s="147"/>
       <c r="D27" s="147"/>
@@ -5169,7 +5056,7 @@
       <c r="O27" s="147"/>
       <c r="P27" s="147"/>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="146"/>
       <c r="C28" s="147"/>
       <c r="D28" s="147"/>
@@ -5186,7 +5073,7 @@
       <c r="O28" s="147"/>
       <c r="P28" s="147"/>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="146"/>
       <c r="C29" s="147"/>
       <c r="D29" s="147"/>
@@ -5203,7 +5090,7 @@
       <c r="O29" s="147"/>
       <c r="P29" s="147"/>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" s="146"/>
       <c r="C30" s="147"/>
       <c r="D30" s="147"/>
@@ -5220,7 +5107,7 @@
       <c r="O30" s="147"/>
       <c r="P30" s="147"/>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" s="146"/>
       <c r="C31" s="147"/>
       <c r="D31" s="147"/>
@@ -5237,7 +5124,7 @@
       <c r="O31" s="147"/>
       <c r="P31" s="147"/>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" s="146"/>
       <c r="C32" s="147"/>
       <c r="D32" s="147"/>
@@ -5254,7 +5141,7 @@
       <c r="O32" s="147"/>
       <c r="P32" s="147"/>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" s="146"/>
       <c r="C33" s="147"/>
       <c r="D33" s="147"/>
@@ -5271,7 +5158,7 @@
       <c r="O33" s="147"/>
       <c r="P33" s="147"/>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="146"/>
       <c r="C34" s="147"/>
       <c r="D34" s="147"/>
@@ -5288,7 +5175,7 @@
       <c r="O34" s="147"/>
       <c r="P34" s="147"/>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B35" s="146"/>
       <c r="C35" s="147"/>
       <c r="D35" s="147"/>
@@ -5305,7 +5192,7 @@
       <c r="O35" s="147"/>
       <c r="P35" s="147"/>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" s="146"/>
       <c r="C36" s="147"/>
       <c r="D36" s="147"/>
@@ -5322,7 +5209,7 @@
       <c r="O36" s="147"/>
       <c r="P36" s="147"/>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="146"/>
       <c r="C37" s="147"/>
       <c r="D37" s="147"/>
@@ -5339,7 +5226,7 @@
       <c r="O37" s="147"/>
       <c r="P37" s="147"/>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="146"/>
       <c r="C38" s="147"/>
       <c r="D38" s="147"/>
@@ -5356,10 +5243,10 @@
       <c r="O38" s="147"/>
       <c r="P38" s="147"/>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39" s="146"/>
       <c r="C39" s="147" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D39" s="147"/>
       <c r="E39" s="147"/>
@@ -5375,7 +5262,7 @@
       <c r="O39" s="147"/>
       <c r="P39" s="147"/>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40" s="146"/>
       <c r="C40" s="147"/>
       <c r="D40" s="147"/>
@@ -5392,7 +5279,7 @@
       <c r="O40" s="147"/>
       <c r="P40" s="147"/>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" s="146"/>
       <c r="C41" s="147"/>
       <c r="D41" s="147"/>
@@ -5409,7 +5296,7 @@
       <c r="O41" s="147"/>
       <c r="P41" s="147"/>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="146"/>
       <c r="C42" s="147"/>
       <c r="D42" s="147"/>
@@ -5426,7 +5313,7 @@
       <c r="O42" s="147"/>
       <c r="P42" s="147"/>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B43" s="146"/>
       <c r="C43" s="147"/>
       <c r="D43" s="147"/>
@@ -5443,7 +5330,7 @@
       <c r="O43" s="147"/>
       <c r="P43" s="147"/>
     </row>
-    <row r="44" spans="2:16">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B44" s="146"/>
       <c r="C44" s="147"/>
       <c r="D44" s="147"/>
@@ -5460,7 +5347,7 @@
       <c r="O44" s="147"/>
       <c r="P44" s="147"/>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B45" s="146"/>
       <c r="C45" s="147"/>
       <c r="D45" s="147"/>
@@ -5477,7 +5364,7 @@
       <c r="O45" s="147"/>
       <c r="P45" s="147"/>
     </row>
-    <row r="46" spans="2:16">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="146"/>
       <c r="C46" s="147"/>
       <c r="D46" s="147"/>
@@ -5494,7 +5381,7 @@
       <c r="O46" s="147"/>
       <c r="P46" s="147"/>
     </row>
-    <row r="47" spans="2:16">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B47" s="146"/>
       <c r="C47" s="147"/>
       <c r="D47" s="147"/>
@@ -5511,7 +5398,7 @@
       <c r="O47" s="147"/>
       <c r="P47" s="147"/>
     </row>
-    <row r="48" spans="2:16">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B48" s="146"/>
       <c r="C48" s="147"/>
       <c r="D48" s="147"/>
@@ -5528,7 +5415,7 @@
       <c r="O48" s="147"/>
       <c r="P48" s="147"/>
     </row>
-    <row r="49" spans="2:16">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B49" s="146"/>
       <c r="C49" s="147"/>
       <c r="D49" s="147"/>
@@ -5545,7 +5432,7 @@
       <c r="O49" s="147"/>
       <c r="P49" s="147"/>
     </row>
-    <row r="50" spans="2:16">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B50" s="146"/>
       <c r="C50" s="147"/>
       <c r="D50" s="147"/>
@@ -5562,7 +5449,7 @@
       <c r="O50" s="147"/>
       <c r="P50" s="147"/>
     </row>
-    <row r="51" spans="2:16">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B51" s="146"/>
       <c r="C51" s="147"/>
       <c r="D51" s="147" t="s">
@@ -5572,7 +5459,7 @@
         <v>4</v>
       </c>
       <c r="F51" s="147" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G51" s="147"/>
       <c r="H51" s="147"/>
@@ -5585,7 +5472,7 @@
       <c r="O51" s="147"/>
       <c r="P51" s="147"/>
     </row>
-    <row r="52" spans="2:16">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B52" s="146"/>
       <c r="C52" s="147"/>
       <c r="D52" s="147"/>
@@ -5602,7 +5489,7 @@
       <c r="O52" s="147"/>
       <c r="P52" s="147"/>
     </row>
-    <row r="53" spans="2:16">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B53" s="146"/>
       <c r="C53" s="147"/>
       <c r="D53" s="147"/>
@@ -5619,7 +5506,7 @@
       <c r="O53" s="147"/>
       <c r="P53" s="147"/>
     </row>
-    <row r="54" spans="2:16">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B54" s="146"/>
       <c r="C54" s="147"/>
       <c r="D54" s="147"/>
@@ -5636,7 +5523,7 @@
       <c r="O54" s="147"/>
       <c r="P54" s="147"/>
     </row>
-    <row r="55" spans="2:16">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B55" s="146"/>
       <c r="C55" s="147"/>
       <c r="D55" s="147"/>
@@ -5653,7 +5540,7 @@
       <c r="O55" s="147"/>
       <c r="P55" s="147"/>
     </row>
-    <row r="56" spans="2:16">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B56" s="146"/>
       <c r="C56" s="147"/>
       <c r="D56" s="147"/>
@@ -5670,7 +5557,7 @@
       <c r="O56" s="147"/>
       <c r="P56" s="147"/>
     </row>
-    <row r="57" spans="2:16">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B57" s="146"/>
       <c r="C57" s="147"/>
       <c r="D57" s="147"/>
@@ -5687,7 +5574,7 @@
       <c r="O57" s="147"/>
       <c r="P57" s="147"/>
     </row>
-    <row r="58" spans="2:16">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B58" s="146"/>
       <c r="C58" s="147"/>
       <c r="D58" s="147"/>
@@ -5704,7 +5591,7 @@
       <c r="O58" s="147"/>
       <c r="P58" s="147"/>
     </row>
-    <row r="59" spans="2:16">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B59" s="146"/>
       <c r="C59" s="147"/>
       <c r="D59" s="147"/>
@@ -5721,7 +5608,7 @@
       <c r="O59" s="147"/>
       <c r="P59" s="147"/>
     </row>
-    <row r="60" spans="2:16">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B60" s="146"/>
       <c r="C60" s="147"/>
       <c r="D60" s="147"/>
@@ -5738,7 +5625,7 @@
       <c r="O60" s="147"/>
       <c r="P60" s="147"/>
     </row>
-    <row r="61" spans="2:16">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B61" s="146"/>
       <c r="C61" s="147"/>
       <c r="D61" s="147"/>
@@ -5755,7 +5642,7 @@
       <c r="O61" s="147"/>
       <c r="P61" s="147"/>
     </row>
-    <row r="62" spans="2:16">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B62" s="146"/>
       <c r="C62" s="147"/>
       <c r="D62" s="147"/>
@@ -5772,7 +5659,7 @@
       <c r="O62" s="147"/>
       <c r="P62" s="147"/>
     </row>
-    <row r="63" spans="2:16">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B63" s="146"/>
       <c r="C63" s="147"/>
       <c r="D63" s="147"/>
@@ -5789,7 +5676,7 @@
       <c r="O63" s="147"/>
       <c r="P63" s="147"/>
     </row>
-    <row r="64" spans="2:16">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B64" s="146"/>
       <c r="C64" s="147"/>
       <c r="D64" s="147"/>
@@ -5806,7 +5693,7 @@
       <c r="O64" s="147"/>
       <c r="P64" s="147"/>
     </row>
-    <row r="65" spans="2:16">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B65" s="146"/>
       <c r="C65" s="147"/>
       <c r="D65" s="147"/>
@@ -5823,7 +5710,7 @@
       <c r="O65" s="147"/>
       <c r="P65" s="147"/>
     </row>
-    <row r="66" spans="2:16">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B66" s="146"/>
       <c r="C66" s="147"/>
       <c r="D66" s="147"/>
@@ -5840,7 +5727,7 @@
       <c r="O66" s="147"/>
       <c r="P66" s="147"/>
     </row>
-    <row r="67" spans="2:16">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B67" s="146"/>
       <c r="C67" s="147"/>
       <c r="D67" s="147"/>
@@ -5857,7 +5744,7 @@
       <c r="O67" s="147"/>
       <c r="P67" s="147"/>
     </row>
-    <row r="68" spans="2:16">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B68" s="146"/>
       <c r="C68" s="147"/>
       <c r="D68" s="147"/>
@@ -5874,7 +5761,7 @@
       <c r="O68" s="147"/>
       <c r="P68" s="147"/>
     </row>
-    <row r="69" spans="2:16">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B69" s="146"/>
       <c r="C69" s="147"/>
       <c r="D69" s="147"/>
@@ -5891,7 +5778,7 @@
       <c r="O69" s="147"/>
       <c r="P69" s="147"/>
     </row>
-    <row r="70" spans="2:16">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B70" s="146"/>
       <c r="C70" s="147"/>
       <c r="D70" s="147"/>
@@ -5908,7 +5795,7 @@
       <c r="O70" s="147"/>
       <c r="P70" s="147"/>
     </row>
-    <row r="71" spans="2:16">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B71" s="146"/>
       <c r="C71" s="147"/>
       <c r="D71" s="147"/>
@@ -5925,7 +5812,7 @@
       <c r="O71" s="147"/>
       <c r="P71" s="147"/>
     </row>
-    <row r="72" spans="2:16">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B72" s="146"/>
       <c r="C72" s="147"/>
       <c r="D72" s="147"/>
@@ -5942,7 +5829,7 @@
       <c r="O72" s="147"/>
       <c r="P72" s="147"/>
     </row>
-    <row r="73" spans="2:16">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B73" s="146"/>
       <c r="C73" s="147"/>
       <c r="D73" s="147"/>
@@ -5959,17 +5846,17 @@
       <c r="O73" s="147"/>
       <c r="P73" s="147"/>
     </row>
-    <row r="74" spans="2:16">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B74" s="146"/>
       <c r="C74" s="147"/>
       <c r="D74" s="147" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E74" s="147">
         <v>35</v>
       </c>
       <c r="F74" s="147" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G74" s="147"/>
       <c r="H74" s="147"/>
@@ -5982,11 +5869,11 @@
       <c r="O74" s="147"/>
       <c r="P74" s="147"/>
     </row>
-    <row r="75" spans="2:16">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B75" s="146"/>
       <c r="C75" s="147"/>
       <c r="D75" s="147" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E75" s="147"/>
       <c r="F75" s="147"/>
@@ -6001,7 +5888,7 @@
       <c r="O75" s="147"/>
       <c r="P75" s="147"/>
     </row>
-    <row r="76" spans="2:16">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B76" s="146"/>
       <c r="C76" s="147"/>
       <c r="D76" s="147"/>
@@ -6018,7 +5905,7 @@
       <c r="O76" s="147"/>
       <c r="P76" s="147"/>
     </row>
-    <row r="77" spans="2:16">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B77" s="146"/>
       <c r="C77" s="147"/>
       <c r="D77" s="147"/>
@@ -6035,7 +5922,7 @@
       <c r="O77" s="147"/>
       <c r="P77" s="147"/>
     </row>
-    <row r="78" spans="2:16">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B78" s="146"/>
       <c r="C78" s="147"/>
       <c r="D78" s="147"/>
@@ -6052,7 +5939,7 @@
       <c r="O78" s="147"/>
       <c r="P78" s="147"/>
     </row>
-    <row r="79" spans="2:16">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="146"/>
       <c r="C79" s="147"/>
       <c r="D79" s="147"/>
@@ -6069,7 +5956,7 @@
       <c r="O79" s="147"/>
       <c r="P79" s="147"/>
     </row>
-    <row r="80" spans="2:16">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B80" s="146"/>
       <c r="C80" s="147"/>
       <c r="D80" s="147"/>
@@ -6086,7 +5973,7 @@
       <c r="O80" s="147"/>
       <c r="P80" s="147"/>
     </row>
-    <row r="81" spans="2:16">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B81" s="146"/>
       <c r="C81" s="147"/>
       <c r="D81" s="147"/>
@@ -6103,7 +5990,7 @@
       <c r="O81" s="147"/>
       <c r="P81" s="147"/>
     </row>
-    <row r="82" spans="2:16">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="146"/>
       <c r="C82" s="147"/>
       <c r="D82" s="147"/>
@@ -6120,7 +6007,7 @@
       <c r="O82" s="147"/>
       <c r="P82" s="147"/>
     </row>
-    <row r="83" spans="2:16">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B83" s="146"/>
       <c r="C83" s="147"/>
       <c r="D83" s="147"/>
@@ -6137,7 +6024,7 @@
       <c r="O83" s="147"/>
       <c r="P83" s="147"/>
     </row>
-    <row r="84" spans="2:16">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B84" s="146"/>
       <c r="C84" s="147"/>
       <c r="D84" s="147"/>
@@ -6154,7 +6041,7 @@
       <c r="O84" s="147"/>
       <c r="P84" s="147"/>
     </row>
-    <row r="85" spans="2:16">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B85" s="146"/>
       <c r="C85" s="147"/>
       <c r="D85" s="147"/>
@@ -6171,7 +6058,7 @@
       <c r="O85" s="147"/>
       <c r="P85" s="147"/>
     </row>
-    <row r="86" spans="2:16">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="146"/>
       <c r="C86" s="147"/>
       <c r="D86" s="147"/>
@@ -6188,7 +6075,7 @@
       <c r="O86" s="147"/>
       <c r="P86" s="147"/>
     </row>
-    <row r="87" spans="2:16">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B87" s="146"/>
       <c r="C87" s="147"/>
       <c r="D87" s="147"/>
@@ -6205,7 +6092,7 @@
       <c r="O87" s="147"/>
       <c r="P87" s="147"/>
     </row>
-    <row r="88" spans="2:16">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B88" s="146"/>
       <c r="C88" s="147"/>
       <c r="D88" s="147"/>
@@ -6222,7 +6109,7 @@
       <c r="O88" s="147"/>
       <c r="P88" s="147"/>
     </row>
-    <row r="89" spans="2:16">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B89" s="146"/>
       <c r="C89" s="147"/>
       <c r="D89" s="147"/>
@@ -6239,7 +6126,7 @@
       <c r="O89" s="147"/>
       <c r="P89" s="147"/>
     </row>
-    <row r="90" spans="2:16">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="146"/>
       <c r="C90" s="147" t="s">
         <v>85</v>
@@ -6258,10 +6145,10 @@
       <c r="O90" s="147"/>
       <c r="P90" s="147"/>
     </row>
-    <row r="91" spans="2:16">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B91" s="146"/>
       <c r="C91" s="147" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D91" s="147"/>
       <c r="E91" s="147"/>
@@ -6277,7 +6164,7 @@
       <c r="O91" s="147"/>
       <c r="P91" s="147"/>
     </row>
-    <row r="92" spans="2:16">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B92" s="146"/>
       <c r="C92" s="147"/>
       <c r="D92" s="147"/>
@@ -6294,7 +6181,7 @@
       <c r="O92" s="147"/>
       <c r="P92" s="147"/>
     </row>
-    <row r="93" spans="2:16">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B93" s="146"/>
       <c r="C93" s="147"/>
       <c r="D93" s="147"/>
@@ -6302,7 +6189,7 @@
         <v>1600</v>
       </c>
       <c r="F93" s="147" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G93" s="147"/>
       <c r="H93" s="147"/>
@@ -6315,7 +6202,7 @@
       <c r="O93" s="147"/>
       <c r="P93" s="147"/>
     </row>
-    <row r="94" spans="2:16">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="146"/>
       <c r="C94" s="147"/>
       <c r="D94" s="147"/>
@@ -6332,7 +6219,7 @@
       <c r="O94" s="147"/>
       <c r="P94" s="147"/>
     </row>
-    <row r="95" spans="2:16">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B95" s="146"/>
       <c r="C95" s="147"/>
       <c r="D95" s="147"/>
@@ -6349,7 +6236,7 @@
       <c r="O95" s="147"/>
       <c r="P95" s="147"/>
     </row>
-    <row r="96" spans="2:16">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B96" s="146"/>
       <c r="C96" s="147"/>
       <c r="D96" s="147"/>
@@ -6366,7 +6253,7 @@
       <c r="O96" s="147"/>
       <c r="P96" s="147"/>
     </row>
-    <row r="97" spans="2:16">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B97" s="146"/>
       <c r="C97" s="147"/>
       <c r="D97" s="147"/>
@@ -6383,7 +6270,7 @@
       <c r="O97" s="147"/>
       <c r="P97" s="147"/>
     </row>
-    <row r="98" spans="2:16">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B98" s="146"/>
       <c r="C98" s="147"/>
       <c r="D98" s="147"/>
@@ -6400,7 +6287,7 @@
       <c r="O98" s="147"/>
       <c r="P98" s="147"/>
     </row>
-    <row r="99" spans="2:16">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B99" s="146"/>
       <c r="C99" s="147"/>
       <c r="D99" s="147"/>
@@ -6417,7 +6304,7 @@
       <c r="O99" s="147"/>
       <c r="P99" s="147"/>
     </row>
-    <row r="100" spans="2:16">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B100" s="146"/>
       <c r="C100" s="147"/>
       <c r="D100" s="147"/>
@@ -6434,7 +6321,7 @@
       <c r="O100" s="147"/>
       <c r="P100" s="147"/>
     </row>
-    <row r="101" spans="2:16">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B101" s="146"/>
       <c r="C101" s="147"/>
       <c r="D101" s="147"/>
@@ -6451,7 +6338,7 @@
       <c r="O101" s="147"/>
       <c r="P101" s="147"/>
     </row>
-    <row r="102" spans="2:16">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B102" s="146"/>
       <c r="C102" s="147"/>
       <c r="D102" s="147"/>
@@ -6468,7 +6355,7 @@
       <c r="O102" s="147"/>
       <c r="P102" s="147"/>
     </row>
-    <row r="103" spans="2:16">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B103" s="146"/>
       <c r="C103" s="147"/>
       <c r="D103" s="147"/>
@@ -6485,7 +6372,7 @@
       <c r="O103" s="147"/>
       <c r="P103" s="147"/>
     </row>
-    <row r="104" spans="2:16">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B104" s="146"/>
       <c r="C104" s="147"/>
       <c r="D104" s="147"/>
@@ -6502,7 +6389,7 @@
       <c r="O104" s="147"/>
       <c r="P104" s="147"/>
     </row>
-    <row r="105" spans="2:16">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B105" s="146"/>
       <c r="C105" s="147"/>
       <c r="D105" s="147"/>
@@ -6519,7 +6406,7 @@
       <c r="O105" s="147"/>
       <c r="P105" s="147"/>
     </row>
-    <row r="106" spans="2:16">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B106" s="146"/>
       <c r="C106" s="147"/>
       <c r="D106" s="147"/>
@@ -6536,7 +6423,7 @@
       <c r="O106" s="147"/>
       <c r="P106" s="147"/>
     </row>
-    <row r="107" spans="2:16">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B107" s="146"/>
       <c r="C107" s="147"/>
       <c r="D107" s="147"/>
@@ -6553,7 +6440,7 @@
       <c r="O107" s="147"/>
       <c r="P107" s="147"/>
     </row>
-    <row r="108" spans="2:16">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B108" s="146"/>
       <c r="C108" s="147"/>
       <c r="D108" s="147"/>
@@ -6570,7 +6457,7 @@
       <c r="O108" s="147"/>
       <c r="P108" s="147"/>
     </row>
-    <row r="109" spans="2:16">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B109" s="146"/>
       <c r="C109" s="147"/>
       <c r="D109" s="147"/>
@@ -6587,7 +6474,7 @@
       <c r="O109" s="147"/>
       <c r="P109" s="147"/>
     </row>
-    <row r="110" spans="2:16">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B110" s="146"/>
       <c r="C110" s="147"/>
       <c r="D110" s="147"/>
@@ -6604,7 +6491,7 @@
       <c r="O110" s="147"/>
       <c r="P110" s="147"/>
     </row>
-    <row r="111" spans="2:16">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B111" s="146"/>
       <c r="C111" s="147"/>
       <c r="D111" s="147"/>
@@ -6621,7 +6508,7 @@
       <c r="O111" s="147"/>
       <c r="P111" s="147"/>
     </row>
-    <row r="112" spans="2:16">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B112" s="146"/>
       <c r="C112" s="147" t="s">
         <v>78</v>
@@ -6640,10 +6527,10 @@
       <c r="O112" s="147"/>
       <c r="P112" s="147"/>
     </row>
-    <row r="113" spans="2:16">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B113" s="146"/>
       <c r="C113" s="147" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D113" s="147"/>
       <c r="E113" s="147"/>
@@ -6659,7 +6546,7 @@
       <c r="O113" s="147"/>
       <c r="P113" s="147"/>
     </row>
-    <row r="114" spans="2:16">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B114" s="146"/>
       <c r="C114" s="147"/>
       <c r="D114" s="147"/>
@@ -6676,7 +6563,7 @@
       <c r="O114" s="147"/>
       <c r="P114" s="147"/>
     </row>
-    <row r="115" spans="2:16">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B115" s="146"/>
       <c r="C115" s="147"/>
       <c r="D115" s="147"/>
@@ -6693,7 +6580,7 @@
       <c r="O115" s="147"/>
       <c r="P115" s="147"/>
     </row>
-    <row r="116" spans="2:16">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B116" s="146"/>
       <c r="C116" s="147"/>
       <c r="D116" s="147"/>
@@ -6710,7 +6597,7 @@
       <c r="O116" s="147"/>
       <c r="P116" s="147"/>
     </row>
-    <row r="117" spans="2:16">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B117" s="146"/>
       <c r="C117" s="147"/>
       <c r="D117" s="147"/>
@@ -6727,7 +6614,7 @@
       <c r="O117" s="147"/>
       <c r="P117" s="147"/>
     </row>
-    <row r="118" spans="2:16">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B118" s="146"/>
       <c r="C118" s="147"/>
       <c r="D118" s="147"/>
@@ -6744,7 +6631,7 @@
       <c r="O118" s="147"/>
       <c r="P118" s="147"/>
     </row>
-    <row r="119" spans="2:16">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B119" s="146"/>
       <c r="C119" s="147"/>
       <c r="D119" s="147"/>
@@ -6761,7 +6648,7 @@
       <c r="O119" s="147"/>
       <c r="P119" s="147"/>
     </row>
-    <row r="120" spans="2:16">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B120" s="146"/>
       <c r="C120" s="147"/>
       <c r="D120" s="147"/>
@@ -6778,7 +6665,7 @@
       <c r="O120" s="147"/>
       <c r="P120" s="147"/>
     </row>
-    <row r="121" spans="2:16">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B121" s="146"/>
       <c r="C121" s="147"/>
       <c r="D121" s="147"/>
@@ -6795,7 +6682,7 @@
       <c r="O121" s="147"/>
       <c r="P121" s="147"/>
     </row>
-    <row r="122" spans="2:16">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B122" s="146"/>
       <c r="C122" s="147"/>
       <c r="D122" s="147"/>
@@ -6812,7 +6699,7 @@
       <c r="O122" s="147"/>
       <c r="P122" s="147"/>
     </row>
-    <row r="123" spans="2:16">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B123" s="146"/>
       <c r="C123" s="147"/>
       <c r="D123" s="147"/>
@@ -6829,7 +6716,7 @@
       <c r="O123" s="147"/>
       <c r="P123" s="147"/>
     </row>
-    <row r="124" spans="2:16">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B124" s="146"/>
       <c r="C124" s="147"/>
       <c r="D124" s="147"/>
@@ -6837,7 +6724,7 @@
         <v>35</v>
       </c>
       <c r="F124" s="147" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G124" s="147"/>
       <c r="H124" s="147"/>
@@ -6850,7 +6737,7 @@
       <c r="O124" s="147"/>
       <c r="P124" s="147"/>
     </row>
-    <row r="125" spans="2:16">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B125" s="146"/>
       <c r="C125" s="147"/>
       <c r="D125" s="147"/>
@@ -6858,7 +6745,7 @@
         <v>1400</v>
       </c>
       <c r="F125" s="147" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G125" s="147"/>
       <c r="H125" s="147"/>
@@ -6871,7 +6758,7 @@
       <c r="O125" s="147"/>
       <c r="P125" s="147"/>
     </row>
-    <row r="126" spans="2:16">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B126" s="146"/>
       <c r="C126" s="147"/>
       <c r="D126" s="147"/>
@@ -6888,7 +6775,7 @@
       <c r="O126" s="147"/>
       <c r="P126" s="147"/>
     </row>
-    <row r="127" spans="2:16">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B127" s="146"/>
       <c r="C127" s="147"/>
       <c r="D127" s="147"/>
@@ -6905,7 +6792,7 @@
       <c r="O127" s="147"/>
       <c r="P127" s="147"/>
     </row>
-    <row r="128" spans="2:16">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B128" s="146"/>
       <c r="C128" s="147"/>
       <c r="D128" s="147"/>
@@ -6922,7 +6809,7 @@
       <c r="O128" s="147"/>
       <c r="P128" s="147"/>
     </row>
-    <row r="129" spans="2:16">
+    <row r="129" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B129" s="146"/>
       <c r="C129" s="147"/>
       <c r="D129" s="147"/>
@@ -6939,7 +6826,7 @@
       <c r="O129" s="147"/>
       <c r="P129" s="147"/>
     </row>
-    <row r="130" spans="2:16">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B130" s="146"/>
       <c r="C130" s="147"/>
       <c r="D130" s="147"/>
@@ -6956,7 +6843,7 @@
       <c r="O130" s="147"/>
       <c r="P130" s="147"/>
     </row>
-    <row r="131" spans="2:16">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B131" s="146"/>
       <c r="C131" s="147"/>
       <c r="D131" s="147"/>
@@ -6973,7 +6860,7 @@
       <c r="O131" s="147"/>
       <c r="P131" s="147"/>
     </row>
-    <row r="132" spans="2:16">
+    <row r="132" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B132" s="146"/>
       <c r="C132" s="147"/>
       <c r="D132" s="147"/>
@@ -6990,7 +6877,7 @@
       <c r="O132" s="147"/>
       <c r="P132" s="147"/>
     </row>
-    <row r="133" spans="2:16">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B133" s="146"/>
       <c r="C133" s="147"/>
       <c r="D133" s="147"/>
@@ -7007,7 +6894,7 @@
       <c r="O133" s="147"/>
       <c r="P133" s="147"/>
     </row>
-    <row r="134" spans="2:16">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B134" s="146"/>
       <c r="C134" s="147"/>
       <c r="D134" s="147"/>
@@ -7024,7 +6911,7 @@
       <c r="O134" s="147"/>
       <c r="P134" s="147"/>
     </row>
-    <row r="135" spans="2:16">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B135" s="146"/>
       <c r="C135" s="147"/>
       <c r="D135" s="147"/>
@@ -7041,7 +6928,7 @@
       <c r="O135" s="147"/>
       <c r="P135" s="147"/>
     </row>
-    <row r="136" spans="2:16">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B136" s="146"/>
       <c r="C136" s="147"/>
       <c r="D136" s="147"/>
@@ -7058,7 +6945,7 @@
       <c r="O136" s="147"/>
       <c r="P136" s="147"/>
     </row>
-    <row r="137" spans="2:16">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B137" s="146"/>
       <c r="C137" s="147"/>
       <c r="D137" s="147"/>
@@ -7075,7 +6962,7 @@
       <c r="O137" s="147"/>
       <c r="P137" s="147"/>
     </row>
-    <row r="138" spans="2:16">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B138" s="146"/>
       <c r="C138" s="147"/>
       <c r="D138" s="147"/>
@@ -7092,7 +6979,7 @@
       <c r="O138" s="147"/>
       <c r="P138" s="147"/>
     </row>
-    <row r="139" spans="2:16">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B139" s="146"/>
       <c r="C139" s="147"/>
       <c r="D139" s="147"/>
@@ -7109,7 +6996,7 @@
       <c r="O139" s="147"/>
       <c r="P139" s="147"/>
     </row>
-    <row r="140" spans="2:16">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B140" s="146"/>
       <c r="C140" s="147"/>
       <c r="D140" s="147"/>
@@ -7126,7 +7013,7 @@
       <c r="O140" s="147"/>
       <c r="P140" s="147"/>
     </row>
-    <row r="141" spans="2:16">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B141" s="146"/>
       <c r="C141" s="147"/>
       <c r="D141" s="147"/>
@@ -7143,7 +7030,7 @@
       <c r="O141" s="147"/>
       <c r="P141" s="147"/>
     </row>
-    <row r="142" spans="2:16">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B142" s="146"/>
       <c r="C142" s="147"/>
       <c r="D142" s="147"/>
@@ -7160,7 +7047,7 @@
       <c r="O142" s="147"/>
       <c r="P142" s="147"/>
     </row>
-    <row r="143" spans="2:16">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B143" s="146"/>
       <c r="C143" s="147"/>
       <c r="D143" s="147"/>
@@ -7177,7 +7064,7 @@
       <c r="O143" s="147"/>
       <c r="P143" s="147"/>
     </row>
-    <row r="144" spans="2:16">
+    <row r="144" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B144" s="146"/>
       <c r="C144" s="147"/>
       <c r="D144" s="147"/>
@@ -7194,7 +7081,7 @@
       <c r="O144" s="147"/>
       <c r="P144" s="147"/>
     </row>
-    <row r="145" spans="2:16">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B145" s="146"/>
       <c r="C145" s="147"/>
       <c r="D145" s="147"/>
@@ -7211,7 +7098,7 @@
       <c r="O145" s="147"/>
       <c r="P145" s="147"/>
     </row>
-    <row r="146" spans="2:16">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B146" s="146"/>
       <c r="C146" s="147"/>
       <c r="D146" s="147"/>
@@ -7228,7 +7115,7 @@
       <c r="O146" s="147"/>
       <c r="P146" s="147"/>
     </row>
-    <row r="147" spans="2:16">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B147" s="146"/>
       <c r="C147" s="147"/>
       <c r="D147" s="147"/>
@@ -7245,7 +7132,7 @@
       <c r="O147" s="147"/>
       <c r="P147" s="147"/>
     </row>
-    <row r="148" spans="2:16">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B148" s="146"/>
       <c r="C148" s="147"/>
       <c r="D148" s="147"/>
@@ -7265,10 +7152,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/energy/energy_chp_ultra_supercritical_lignite.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_chp_ultra_supercritical_lignite.central_producer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA702AE6-4AF5-B34C-B149-7AF8D7DE489E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="460" windowWidth="26360" windowHeight="15840" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,10 +37,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -49,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="151">
   <si>
     <t>Source</t>
   </si>
@@ -741,17 +748,20 @@
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
   </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2006,6 +2016,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2027,7 +2040,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2065,7 +2084,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2103,7 +2128,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2141,7 +2172,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2178,7 +2215,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2638,15 +2681,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="25" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" style="17" customWidth="1"/>
@@ -2654,24 +2697,24 @@
     <col min="4" max="16384" width="10.7109375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="23" customFormat="1">
       <c r="A1" s="21"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="24"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>19</v>
@@ -2680,7 +2723,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>98</v>
@@ -2689,7 +2732,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>21</v>
@@ -2698,29 +2741,29 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="108" t="s">
         <v>100</v>
       </c>
       <c r="C9" s="109"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="110"/>
       <c r="C10" s="111"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="110" t="s">
         <v>101</v>
@@ -2729,33 +2772,33 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="110"/>
       <c r="C12" s="113" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="110"/>
       <c r="C13" s="114" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="110"/>
       <c r="C14" s="111" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="110"/>
       <c r="C15" s="111"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="110" t="s">
         <v>106</v>
@@ -2764,49 +2807,49 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="110"/>
       <c r="C17" s="116" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="110"/>
       <c r="C18" s="117" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="110"/>
       <c r="C19" s="118" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="119"/>
       <c r="C20" s="120" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="119"/>
       <c r="C21" s="121" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="119"/>
       <c r="C22" s="122" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="B23" s="119"/>
       <c r="C23" s="123" t="s">
         <v>114</v>
@@ -2819,17 +2862,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="33" customWidth="1"/>
     <col min="2" max="2" width="2.28515625" style="33" customWidth="1"/>
@@ -2844,10 +2887,10 @@
     <col min="11" max="16384" width="10.7109375" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11">
       <c r="D1" s="31"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11">
       <c r="B2" s="153" t="s">
         <v>149</v>
       </c>
@@ -2857,7 +2900,7 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11">
       <c r="B3" s="156"/>
       <c r="C3" s="157"/>
       <c r="D3" s="157"/>
@@ -2865,7 +2908,7 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="B4" s="156"/>
       <c r="C4" s="157"/>
       <c r="D4" s="157"/>
@@ -2873,7 +2916,7 @@
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11">
       <c r="B5" s="159"/>
       <c r="C5" s="160"/>
       <c r="D5" s="160"/>
@@ -2881,10 +2924,10 @@
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="17" thickBot="1">
       <c r="D6" s="31"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11">
       <c r="B7" s="34"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -2895,7 +2938,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="35"/>
     </row>
-    <row r="8" spans="2:11" s="40" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" s="40" customFormat="1" ht="19">
       <c r="B8" s="136"/>
       <c r="C8" s="132" t="s">
         <v>34</v>
@@ -2916,7 +2959,7 @@
       </c>
       <c r="J8" s="134"/>
     </row>
-    <row r="9" spans="2:11" s="40" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" s="40" customFormat="1" ht="19">
       <c r="B9" s="19"/>
       <c r="C9" s="14"/>
       <c r="D9" s="27"/>
@@ -2927,7 +2970,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="41"/>
     </row>
-    <row r="10" spans="2:11" s="40" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" s="40" customFormat="1" ht="20" thickBot="1">
       <c r="B10" s="19"/>
       <c r="C10" s="14" t="s">
         <v>127</v>
@@ -2940,7 +2983,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="41"/>
     </row>
-    <row r="11" spans="2:11" s="40" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" s="40" customFormat="1" ht="20" thickBot="1">
       <c r="B11" s="19"/>
       <c r="C11" s="32" t="s">
         <v>35</v>
@@ -2959,7 +3002,7 @@
       </c>
       <c r="J11" s="41"/>
     </row>
-    <row r="12" spans="2:11" s="40" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" s="40" customFormat="1" ht="20" thickBot="1">
       <c r="B12" s="19"/>
       <c r="C12" s="32" t="s">
         <v>69</v>
@@ -2978,7 +3021,7 @@
       </c>
       <c r="J12" s="41"/>
     </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="17" thickBot="1">
       <c r="B13" s="36"/>
       <c r="C13" s="32" t="s">
         <v>37</v>
@@ -2998,7 +3041,7 @@
       <c r="J13" s="135"/>
       <c r="K13" s="31"/>
     </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="36"/>
       <c r="C14" s="32" t="s">
         <v>38</v>
@@ -3018,7 +3061,7 @@
       <c r="J14" s="135"/>
       <c r="K14" s="31"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="36"/>
       <c r="C15" s="32" t="s">
         <v>40</v>
@@ -3038,7 +3081,7 @@
       <c r="J15" s="135"/>
       <c r="K15" s="31"/>
     </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="17" thickBot="1">
       <c r="B16" s="36"/>
       <c r="C16" s="32" t="s">
         <v>11</v>
@@ -3058,7 +3101,7 @@
       <c r="J16" s="135"/>
       <c r="K16" s="31"/>
     </row>
-    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="17" thickBot="1">
       <c r="B17" s="36"/>
       <c r="C17" s="32" t="s">
         <v>43</v>
@@ -3078,7 +3121,7 @@
       <c r="J17" s="135"/>
       <c r="K17" s="31"/>
     </row>
-    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="17" thickBot="1">
       <c r="B18" s="36"/>
       <c r="C18" s="32" t="s">
         <v>44</v>
@@ -3098,7 +3141,7 @@
       <c r="J18" s="135"/>
       <c r="K18" s="31"/>
     </row>
-    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="17" thickBot="1">
       <c r="B19" s="36"/>
       <c r="C19" s="32" t="s">
         <v>45</v>
@@ -3120,7 +3163,7 @@
       </c>
       <c r="J19" s="135"/>
     </row>
-    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="17" thickBot="1">
       <c r="B20" s="36"/>
       <c r="C20" s="32" t="s">
         <v>46</v>
@@ -3141,7 +3184,7 @@
       </c>
       <c r="J20" s="135"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11">
       <c r="B21" s="36"/>
       <c r="C21" s="31"/>
       <c r="D21" s="138"/>
@@ -3152,7 +3195,7 @@
       <c r="I21" s="31"/>
       <c r="J21" s="135"/>
     </row>
-    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" ht="17" thickBot="1">
       <c r="B22" s="36"/>
       <c r="C22" s="14" t="s">
         <v>128</v>
@@ -3165,7 +3208,7 @@
       <c r="I22" s="31"/>
       <c r="J22" s="135"/>
     </row>
-    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" ht="17" thickBot="1">
       <c r="B23" s="36"/>
       <c r="C23" s="32" t="s">
         <v>47</v>
@@ -3187,7 +3230,7 @@
       </c>
       <c r="J23" s="135"/>
     </row>
-    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" ht="17" thickBot="1">
       <c r="B24" s="36"/>
       <c r="C24" s="32" t="s">
         <v>48</v>
@@ -3208,7 +3251,7 @@
       </c>
       <c r="J24" s="135"/>
     </row>
-    <row r="25" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" ht="17" thickBot="1">
       <c r="B25" s="36"/>
       <c r="C25" s="32" t="s">
         <v>13</v>
@@ -3229,7 +3272,7 @@
       </c>
       <c r="J25" s="135"/>
     </row>
-    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" ht="17" thickBot="1">
       <c r="B26" s="36"/>
       <c r="C26" s="32" t="s">
         <v>49</v>
@@ -3250,7 +3293,7 @@
       </c>
       <c r="J26" s="135"/>
     </row>
-    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" ht="17" thickBot="1">
       <c r="B27" s="36"/>
       <c r="C27" s="32" t="s">
         <v>50</v>
@@ -3272,7 +3315,7 @@
       </c>
       <c r="J27" s="135"/>
     </row>
-    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" ht="17" thickBot="1">
       <c r="B28" s="36"/>
       <c r="C28" s="32" t="s">
         <v>51</v>
@@ -3293,7 +3336,7 @@
       </c>
       <c r="J28" s="135"/>
     </row>
-    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" ht="17" thickBot="1">
       <c r="B29" s="36"/>
       <c r="C29" s="32" t="s">
         <v>52</v>
@@ -3314,7 +3357,7 @@
       </c>
       <c r="J29" s="135"/>
     </row>
-    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" ht="17" thickBot="1">
       <c r="B30" s="36"/>
       <c r="C30" s="32" t="s">
         <v>55</v>
@@ -3323,19 +3366,19 @@
         <v>3</v>
       </c>
       <c r="E30" s="43">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F30" s="32"/>
       <c r="G30" s="32" t="s">
         <v>25</v>
       </c>
       <c r="H30" s="32"/>
-      <c r="I30" s="30" t="s">
-        <v>58</v>
+      <c r="I30" s="114" t="s">
+        <v>150</v>
       </c>
       <c r="J30" s="135"/>
     </row>
-    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" ht="17" thickBot="1">
       <c r="B31" s="36"/>
       <c r="C31" s="32" t="s">
         <v>42</v>
@@ -3354,7 +3397,7 @@
       </c>
       <c r="J31" s="135"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11">
       <c r="B32" s="36"/>
       <c r="C32" s="31"/>
       <c r="D32" s="138"/>
@@ -3365,7 +3408,7 @@
       <c r="I32" s="31"/>
       <c r="J32" s="135"/>
     </row>
-    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" ht="17" thickBot="1">
       <c r="B33" s="36"/>
       <c r="C33" s="14" t="s">
         <v>8</v>
@@ -3378,7 +3421,7 @@
       <c r="I33" s="31"/>
       <c r="J33" s="135"/>
     </row>
-    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" ht="17" thickBot="1">
       <c r="B34" s="36"/>
       <c r="C34" s="32" t="s">
         <v>41</v>
@@ -3400,7 +3443,7 @@
       </c>
       <c r="J34" s="135"/>
     </row>
-    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" ht="17" thickBot="1">
       <c r="B35" s="36"/>
       <c r="C35" s="32" t="s">
         <v>53</v>
@@ -3422,7 +3465,7 @@
       </c>
       <c r="J35" s="135"/>
     </row>
-    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" ht="17" thickBot="1">
       <c r="B36" s="36"/>
       <c r="C36" s="32" t="s">
         <v>54</v>
@@ -3444,7 +3487,7 @@
       </c>
       <c r="J36" s="135"/>
     </row>
-    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" ht="17" thickBot="1">
       <c r="B37" s="36"/>
       <c r="C37" s="32" t="s">
         <v>39</v>
@@ -3463,7 +3506,7 @@
       </c>
       <c r="J37" s="135"/>
     </row>
-    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" ht="17" thickBot="1">
       <c r="B38" s="36"/>
       <c r="C38" s="44" t="s">
         <v>71</v>
@@ -3480,7 +3523,7 @@
       </c>
       <c r="J38" s="135"/>
     </row>
-    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" ht="17" thickBot="1">
       <c r="B39" s="36"/>
       <c r="C39" s="44" t="s">
         <v>72</v>
@@ -3497,7 +3540,7 @@
       </c>
       <c r="J39" s="135"/>
     </row>
-    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" ht="17" thickBot="1">
       <c r="B40" s="36"/>
       <c r="C40" s="44" t="s">
         <v>74</v>
@@ -3514,7 +3557,7 @@
       </c>
       <c r="J40" s="135"/>
     </row>
-    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" ht="17" thickBot="1">
       <c r="B41" s="36"/>
       <c r="C41" s="44" t="s">
         <v>75</v>
@@ -3531,7 +3574,7 @@
       </c>
       <c r="J41" s="135"/>
     </row>
-    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" ht="17" thickBot="1">
       <c r="B42" s="36"/>
       <c r="C42" s="44" t="s">
         <v>73</v>
@@ -3548,7 +3591,7 @@
       </c>
       <c r="J42" s="135"/>
     </row>
-    <row r="43" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" ht="20" customHeight="1" thickBot="1">
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="38"/>
@@ -3569,8 +3612,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B1:R23"/>
@@ -3579,7 +3622,7 @@
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4" style="70" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" style="70" customWidth="1"/>
@@ -3602,8 +3645,8 @@
     <col min="19" max="16384" width="10.7109375" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:18" ht="17" thickBot="1"/>
+    <row r="2" spans="2:18">
       <c r="B2" s="72"/>
       <c r="C2" s="73"/>
       <c r="D2" s="73"/>
@@ -3622,7 +3665,7 @@
       <c r="Q2" s="74"/>
       <c r="R2" s="73"/>
     </row>
-    <row r="3" spans="2:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" s="20" customFormat="1">
       <c r="B3" s="19"/>
       <c r="C3" s="124" t="s">
         <v>119</v>
@@ -3657,7 +3700,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:18">
       <c r="B4" s="75"/>
       <c r="C4" s="76"/>
       <c r="D4" s="76"/>
@@ -3676,7 +3719,7 @@
       <c r="Q4" s="130"/>
       <c r="R4" s="9"/>
     </row>
-    <row r="5" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" ht="17" thickBot="1">
       <c r="B5" s="75"/>
       <c r="C5" s="28" t="s">
         <v>120</v>
@@ -3697,7 +3740,7 @@
       <c r="Q5" s="10"/>
       <c r="R5" s="69"/>
     </row>
-    <row r="6" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" ht="17" thickBot="1">
       <c r="B6" s="75"/>
       <c r="C6" s="78" t="s">
         <v>31</v>
@@ -3723,7 +3766,7 @@
       <c r="Q6" s="91"/>
       <c r="R6" s="69"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:18">
       <c r="B7" s="75"/>
       <c r="C7" s="90"/>
       <c r="D7" s="90"/>
@@ -3742,7 +3785,7 @@
       <c r="Q7" s="91"/>
       <c r="R7" s="69"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18">
       <c r="B8" s="75"/>
       <c r="C8" s="90"/>
       <c r="D8" s="90"/>
@@ -3761,7 +3804,7 @@
       <c r="Q8" s="91"/>
       <c r="R8" s="69"/>
     </row>
-    <row r="9" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" ht="17" thickBot="1">
       <c r="B9" s="75"/>
       <c r="C9" s="28" t="s">
         <v>8</v>
@@ -3782,7 +3825,7 @@
       <c r="Q9" s="91"/>
       <c r="R9" s="29"/>
     </row>
-    <row r="10" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" ht="17" thickBot="1">
       <c r="B10" s="75"/>
       <c r="C10" s="92" t="s">
         <v>1</v>
@@ -3811,7 +3854,7 @@
       <c r="Q10" s="77"/>
       <c r="R10" s="69"/>
     </row>
-    <row r="11" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" ht="17" thickBot="1">
       <c r="B11" s="75"/>
       <c r="C11" s="94" t="s">
         <v>6</v>
@@ -3843,7 +3886,7 @@
       <c r="Q11" s="77"/>
       <c r="R11" s="69"/>
     </row>
-    <row r="12" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" ht="17" thickBot="1">
       <c r="B12" s="75"/>
       <c r="C12" s="84" t="s">
         <v>16</v>
@@ -3874,7 +3917,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:18">
       <c r="B13" s="75"/>
       <c r="C13" s="89"/>
       <c r="D13" s="89"/>
@@ -3895,7 +3938,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:18">
       <c r="B14" s="75"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
@@ -3914,7 +3957,7 @@
       <c r="Q14" s="91"/>
       <c r="R14" s="69"/>
     </row>
-    <row r="15" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" ht="17" thickBot="1">
       <c r="B15" s="75"/>
       <c r="C15" s="13" t="s">
         <v>118</v>
@@ -3935,7 +3978,7 @@
       <c r="Q15" s="91"/>
       <c r="R15" s="69"/>
     </row>
-    <row r="16" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" ht="17" thickBot="1">
       <c r="B16" s="75"/>
       <c r="C16" s="131" t="s">
         <v>125</v>
@@ -3963,7 +4006,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" ht="17" thickBot="1">
       <c r="B17" s="75"/>
       <c r="C17" s="92" t="s">
         <v>9</v>
@@ -3999,7 +4042,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" ht="17" thickBot="1">
       <c r="B18" s="75"/>
       <c r="C18" s="92" t="s">
         <v>121</v>
@@ -4027,7 +4070,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" ht="17" thickBot="1">
       <c r="B19" s="75"/>
       <c r="C19" s="92" t="s">
         <v>122</v>
@@ -4054,7 +4097,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" ht="17" thickBot="1">
       <c r="B20" s="75"/>
       <c r="C20" s="92" t="s">
         <v>94</v>
@@ -4082,7 +4125,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" ht="17" thickBot="1">
       <c r="B21" s="75"/>
       <c r="C21" s="92" t="s">
         <v>94</v>
@@ -4107,7 +4150,7 @@
       <c r="Q21" s="87"/>
       <c r="R21" s="69"/>
     </row>
-    <row r="22" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" ht="17" thickBot="1">
       <c r="B22" s="75"/>
       <c r="C22" s="92" t="s">
         <v>123</v>
@@ -4132,7 +4175,7 @@
       <c r="Q22" s="91"/>
       <c r="R22" s="69"/>
     </row>
-    <row r="23" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" ht="17" thickBot="1">
       <c r="B23" s="75"/>
       <c r="C23" s="92" t="s">
         <v>124</v>
@@ -4170,8 +4213,8 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="R13" r:id="rId1"/>
-    <hyperlink ref="R20" r:id="rId2" location="issuecomment-27889613"/>
+    <hyperlink ref="R13" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="R20" r:id="rId2" location="issuecomment-27889613" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4179,8 +4222,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:K24"/>
@@ -4189,7 +4232,7 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="45" customWidth="1"/>
     <col min="2" max="2" width="2.42578125" style="45" customWidth="1"/>
@@ -4203,8 +4246,8 @@
     <col min="12" max="16384" width="33.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="17" thickBot="1"/>
+    <row r="2" spans="2:11">
       <c r="B2" s="47"/>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -4216,7 +4259,7 @@
       <c r="J2" s="49"/>
       <c r="K2" s="48"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11">
       <c r="B3" s="50"/>
       <c r="C3" s="51" t="s">
         <v>23</v>
@@ -4230,7 +4273,7 @@
       <c r="J3" s="52"/>
       <c r="K3" s="53"/>
     </row>
-    <row r="4" spans="2:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" ht="17" customHeight="1">
       <c r="B4" s="50"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
@@ -4242,7 +4285,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" ht="16" customHeight="1">
       <c r="B5" s="55"/>
       <c r="C5" s="56" t="s">
         <v>32</v>
@@ -4270,7 +4313,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="50"/>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
@@ -4282,7 +4325,7 @@
       <c r="J6" s="52"/>
       <c r="K6" s="51"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11">
       <c r="B7" s="50"/>
       <c r="C7" s="65"/>
       <c r="D7" s="57"/>
@@ -4306,7 +4349,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11">
       <c r="B8" s="50"/>
       <c r="C8" s="67" t="s">
         <v>77</v>
@@ -4320,7 +4363,7 @@
       <c r="J8" s="54"/>
       <c r="K8" s="53"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11">
       <c r="B9" s="50"/>
       <c r="C9" s="64" t="s">
         <v>6</v>
@@ -4334,7 +4377,7 @@
       <c r="J9" s="61"/>
       <c r="K9" s="57"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11">
       <c r="B10" s="50"/>
       <c r="C10" s="64"/>
       <c r="D10" s="64"/>
@@ -4346,7 +4389,7 @@
       <c r="J10" s="61"/>
       <c r="K10" s="57"/>
     </row>
-    <row r="11" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" ht="34">
       <c r="B11" s="50"/>
       <c r="C11" s="67"/>
       <c r="D11" s="59"/>
@@ -4370,7 +4413,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11">
       <c r="B12" s="50"/>
       <c r="C12" s="67" t="s">
         <v>77</v>
@@ -4384,7 +4427,7 @@
       <c r="J12" s="61"/>
       <c r="K12" s="62"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11">
       <c r="B13" s="50"/>
       <c r="C13" s="67" t="s">
         <v>92</v>
@@ -4398,7 +4441,7 @@
       <c r="J13" s="61"/>
       <c r="K13" s="57"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11">
       <c r="B14" s="50"/>
       <c r="C14" s="57" t="s">
         <v>91</v>
@@ -4412,7 +4455,7 @@
       <c r="J14" s="54"/>
       <c r="K14" s="62"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11">
       <c r="B15" s="50"/>
       <c r="C15" s="57"/>
       <c r="D15" s="57"/>
@@ -4424,7 +4467,7 @@
       <c r="J15" s="54"/>
       <c r="K15" s="62"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11">
       <c r="B16" s="50"/>
       <c r="C16" s="63"/>
       <c r="D16" s="57"/>
@@ -4448,7 +4491,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11">
       <c r="B17" s="50"/>
       <c r="C17" s="58" t="s">
         <v>77</v>
@@ -4462,7 +4505,7 @@
       <c r="J17" s="54"/>
       <c r="K17" s="57"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11">
       <c r="B18" s="50"/>
       <c r="C18" s="58"/>
       <c r="D18" s="57"/>
@@ -4474,7 +4517,7 @@
       <c r="J18" s="54"/>
       <c r="K18" s="57"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11">
       <c r="B19" s="50"/>
       <c r="C19" s="57"/>
       <c r="D19" s="57"/>
@@ -4496,7 +4539,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11">
       <c r="B20" s="50"/>
       <c r="C20" s="65" t="s">
         <v>96</v>
@@ -4510,7 +4553,7 @@
       <c r="J20" s="54"/>
       <c r="K20" s="57"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11">
       <c r="B21" s="50"/>
       <c r="C21" s="65" t="s">
         <v>97</v>
@@ -4524,7 +4567,7 @@
       <c r="J21" s="66"/>
       <c r="K21" s="57"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11">
       <c r="B22" s="50"/>
       <c r="C22" s="57"/>
       <c r="D22" s="57"/>
@@ -4536,7 +4579,7 @@
       <c r="J22" s="66"/>
       <c r="K22" s="57"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11">
       <c r="B23" s="50"/>
       <c r="C23" s="57"/>
       <c r="D23" s="57"/>
@@ -4556,7 +4599,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11">
       <c r="B24" s="50"/>
       <c r="C24" s="65" t="s">
         <v>70</v>
@@ -4574,9 +4617,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K7" r:id="rId1"/>
-    <hyperlink ref="K11" r:id="rId2"/>
-    <hyperlink ref="K16" r:id="rId3"/>
+    <hyperlink ref="K7" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="K11" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="K16" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4587,22 +4630,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:P148"/>
   <sheetViews>
     <sheetView topLeftCell="A72" workbookViewId="0">
       <selection activeCell="N91" sqref="N91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="143" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" style="143" customWidth="1"/>
     <col min="3" max="16384" width="10.7109375" style="143"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" ht="17" thickBot="1"/>
+    <row r="2" spans="2:16">
       <c r="B2" s="144"/>
       <c r="C2" s="145"/>
       <c r="D2" s="145"/>
@@ -4619,7 +4662,7 @@
       <c r="O2" s="145"/>
       <c r="P2" s="145"/>
     </row>
-    <row r="3" spans="2:16" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" s="20" customFormat="1">
       <c r="B3" s="136"/>
       <c r="C3" s="132" t="s">
         <v>110</v>
@@ -4640,7 +4683,7 @@
       <c r="O3" s="132"/>
       <c r="P3" s="132"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16">
       <c r="B4" s="146"/>
       <c r="C4" s="147"/>
       <c r="D4" s="147"/>
@@ -4657,7 +4700,7 @@
       <c r="O4" s="147"/>
       <c r="P4" s="147"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16">
       <c r="B5" s="146"/>
       <c r="C5" s="147"/>
       <c r="D5" s="147"/>
@@ -4674,7 +4717,7 @@
       <c r="O5" s="147"/>
       <c r="P5" s="147"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16">
       <c r="B6" s="146"/>
       <c r="C6" s="147" t="s">
         <v>83</v>
@@ -4693,7 +4736,7 @@
       <c r="O6" s="147"/>
       <c r="P6" s="147"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16">
       <c r="B7" s="146"/>
       <c r="C7" s="147" t="s">
         <v>132</v>
@@ -4712,7 +4755,7 @@
       <c r="O7" s="147"/>
       <c r="P7" s="147"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16">
       <c r="B8" s="146"/>
       <c r="C8" s="147"/>
       <c r="D8" s="147"/>
@@ -4729,7 +4772,7 @@
       <c r="O8" s="147"/>
       <c r="P8" s="147"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16">
       <c r="B9" s="146"/>
       <c r="C9" s="147"/>
       <c r="D9" s="147"/>
@@ -4746,7 +4789,7 @@
       <c r="O9" s="147"/>
       <c r="P9" s="147"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16">
       <c r="B10" s="146"/>
       <c r="C10" s="147"/>
       <c r="D10" s="147"/>
@@ -4763,7 +4806,7 @@
       <c r="O10" s="147"/>
       <c r="P10" s="147"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16">
       <c r="B11" s="146"/>
       <c r="C11" s="147"/>
       <c r="D11" s="147"/>
@@ -4780,7 +4823,7 @@
       <c r="O11" s="147"/>
       <c r="P11" s="147"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16">
       <c r="B12" s="146"/>
       <c r="C12" s="147"/>
       <c r="D12" s="147"/>
@@ -4797,7 +4840,7 @@
       <c r="O12" s="147"/>
       <c r="P12" s="147"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:16">
       <c r="B13" s="146"/>
       <c r="C13" s="147"/>
       <c r="D13" s="147"/>
@@ -4814,7 +4857,7 @@
       <c r="O13" s="147"/>
       <c r="P13" s="147"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16">
       <c r="B14" s="146"/>
       <c r="C14" s="147"/>
       <c r="D14" s="147"/>
@@ -4831,7 +4874,7 @@
       <c r="O14" s="147"/>
       <c r="P14" s="147"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16">
       <c r="B15" s="146"/>
       <c r="C15" s="147"/>
       <c r="D15" s="147"/>
@@ -4848,7 +4891,7 @@
       <c r="O15" s="147"/>
       <c r="P15" s="147"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16">
       <c r="B16" s="146"/>
       <c r="C16" s="147"/>
       <c r="D16" s="147"/>
@@ -4865,7 +4908,7 @@
       <c r="O16" s="147"/>
       <c r="P16" s="147"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:16">
       <c r="B17" s="146"/>
       <c r="C17" s="147"/>
       <c r="D17" s="147"/>
@@ -4882,7 +4925,7 @@
       <c r="O17" s="147"/>
       <c r="P17" s="147"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:16">
       <c r="B18" s="146"/>
       <c r="C18" s="147"/>
       <c r="D18" s="147"/>
@@ -4899,7 +4942,7 @@
       <c r="O18" s="147"/>
       <c r="P18" s="147"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:16">
       <c r="B19" s="146"/>
       <c r="C19" s="147"/>
       <c r="D19" s="147"/>
@@ -4916,7 +4959,7 @@
       <c r="O19" s="147"/>
       <c r="P19" s="147"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:16">
       <c r="B20" s="146"/>
       <c r="C20" s="147"/>
       <c r="D20" s="147"/>
@@ -4933,7 +4976,7 @@
       <c r="O20" s="147"/>
       <c r="P20" s="147"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:16">
       <c r="B21" s="146"/>
       <c r="C21" s="147"/>
       <c r="D21" s="147"/>
@@ -4950,7 +4993,7 @@
       <c r="O21" s="147"/>
       <c r="P21" s="147"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:16">
       <c r="B22" s="146"/>
       <c r="C22" s="147"/>
       <c r="D22" s="147"/>
@@ -4967,7 +5010,7 @@
       <c r="O22" s="147"/>
       <c r="P22" s="147"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:16">
       <c r="B23" s="146"/>
       <c r="C23" s="147"/>
       <c r="D23" s="147"/>
@@ -4984,7 +5027,7 @@
       <c r="O23" s="147"/>
       <c r="P23" s="147"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:16">
       <c r="B24" s="146"/>
       <c r="C24" s="147"/>
       <c r="D24" s="147"/>
@@ -5001,7 +5044,7 @@
       <c r="O24" s="147"/>
       <c r="P24" s="147"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:16">
       <c r="B25" s="146"/>
       <c r="C25" s="147"/>
       <c r="D25" s="147"/>
@@ -5022,7 +5065,7 @@
       <c r="O25" s="147"/>
       <c r="P25" s="147"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:16">
       <c r="B26" s="146"/>
       <c r="C26" s="147"/>
       <c r="D26" s="147"/>
@@ -5039,7 +5082,7 @@
       <c r="O26" s="147"/>
       <c r="P26" s="147"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:16">
       <c r="B27" s="146"/>
       <c r="C27" s="147"/>
       <c r="D27" s="147"/>
@@ -5056,7 +5099,7 @@
       <c r="O27" s="147"/>
       <c r="P27" s="147"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:16">
       <c r="B28" s="146"/>
       <c r="C28" s="147"/>
       <c r="D28" s="147"/>
@@ -5073,7 +5116,7 @@
       <c r="O28" s="147"/>
       <c r="P28" s="147"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:16">
       <c r="B29" s="146"/>
       <c r="C29" s="147"/>
       <c r="D29" s="147"/>
@@ -5090,7 +5133,7 @@
       <c r="O29" s="147"/>
       <c r="P29" s="147"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:16">
       <c r="B30" s="146"/>
       <c r="C30" s="147"/>
       <c r="D30" s="147"/>
@@ -5107,7 +5150,7 @@
       <c r="O30" s="147"/>
       <c r="P30" s="147"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:16">
       <c r="B31" s="146"/>
       <c r="C31" s="147"/>
       <c r="D31" s="147"/>
@@ -5124,7 +5167,7 @@
       <c r="O31" s="147"/>
       <c r="P31" s="147"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:16">
       <c r="B32" s="146"/>
       <c r="C32" s="147"/>
       <c r="D32" s="147"/>
@@ -5141,7 +5184,7 @@
       <c r="O32" s="147"/>
       <c r="P32" s="147"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16">
       <c r="B33" s="146"/>
       <c r="C33" s="147"/>
       <c r="D33" s="147"/>
@@ -5158,7 +5201,7 @@
       <c r="O33" s="147"/>
       <c r="P33" s="147"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16">
       <c r="B34" s="146"/>
       <c r="C34" s="147"/>
       <c r="D34" s="147"/>
@@ -5175,7 +5218,7 @@
       <c r="O34" s="147"/>
       <c r="P34" s="147"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:16">
       <c r="B35" s="146"/>
       <c r="C35" s="147"/>
       <c r="D35" s="147"/>
@@ -5192,7 +5235,7 @@
       <c r="O35" s="147"/>
       <c r="P35" s="147"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:16">
       <c r="B36" s="146"/>
       <c r="C36" s="147"/>
       <c r="D36" s="147"/>
@@ -5209,7 +5252,7 @@
       <c r="O36" s="147"/>
       <c r="P36" s="147"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16">
       <c r="B37" s="146"/>
       <c r="C37" s="147"/>
       <c r="D37" s="147"/>
@@ -5226,7 +5269,7 @@
       <c r="O37" s="147"/>
       <c r="P37" s="147"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16">
       <c r="B38" s="146"/>
       <c r="C38" s="147"/>
       <c r="D38" s="147"/>
@@ -5243,7 +5286,7 @@
       <c r="O38" s="147"/>
       <c r="P38" s="147"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16">
       <c r="B39" s="146"/>
       <c r="C39" s="147" t="s">
         <v>134</v>
@@ -5262,7 +5305,7 @@
       <c r="O39" s="147"/>
       <c r="P39" s="147"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:16">
       <c r="B40" s="146"/>
       <c r="C40" s="147"/>
       <c r="D40" s="147"/>
@@ -5279,7 +5322,7 @@
       <c r="O40" s="147"/>
       <c r="P40" s="147"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:16">
       <c r="B41" s="146"/>
       <c r="C41" s="147"/>
       <c r="D41" s="147"/>
@@ -5296,7 +5339,7 @@
       <c r="O41" s="147"/>
       <c r="P41" s="147"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16">
       <c r="B42" s="146"/>
       <c r="C42" s="147"/>
       <c r="D42" s="147"/>
@@ -5313,7 +5356,7 @@
       <c r="O42" s="147"/>
       <c r="P42" s="147"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16">
       <c r="B43" s="146"/>
       <c r="C43" s="147"/>
       <c r="D43" s="147"/>
@@ -5330,7 +5373,7 @@
       <c r="O43" s="147"/>
       <c r="P43" s="147"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16">
       <c r="B44" s="146"/>
       <c r="C44" s="147"/>
       <c r="D44" s="147"/>
@@ -5347,7 +5390,7 @@
       <c r="O44" s="147"/>
       <c r="P44" s="147"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16">
       <c r="B45" s="146"/>
       <c r="C45" s="147"/>
       <c r="D45" s="147"/>
@@ -5364,7 +5407,7 @@
       <c r="O45" s="147"/>
       <c r="P45" s="147"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16">
       <c r="B46" s="146"/>
       <c r="C46" s="147"/>
       <c r="D46" s="147"/>
@@ -5381,7 +5424,7 @@
       <c r="O46" s="147"/>
       <c r="P46" s="147"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16">
       <c r="B47" s="146"/>
       <c r="C47" s="147"/>
       <c r="D47" s="147"/>
@@ -5398,7 +5441,7 @@
       <c r="O47" s="147"/>
       <c r="P47" s="147"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16">
       <c r="B48" s="146"/>
       <c r="C48" s="147"/>
       <c r="D48" s="147"/>
@@ -5415,7 +5458,7 @@
       <c r="O48" s="147"/>
       <c r="P48" s="147"/>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:16">
       <c r="B49" s="146"/>
       <c r="C49" s="147"/>
       <c r="D49" s="147"/>
@@ -5432,7 +5475,7 @@
       <c r="O49" s="147"/>
       <c r="P49" s="147"/>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:16">
       <c r="B50" s="146"/>
       <c r="C50" s="147"/>
       <c r="D50" s="147"/>
@@ -5449,7 +5492,7 @@
       <c r="O50" s="147"/>
       <c r="P50" s="147"/>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:16">
       <c r="B51" s="146"/>
       <c r="C51" s="147"/>
       <c r="D51" s="147" t="s">
@@ -5472,7 +5515,7 @@
       <c r="O51" s="147"/>
       <c r="P51" s="147"/>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:16">
       <c r="B52" s="146"/>
       <c r="C52" s="147"/>
       <c r="D52" s="147"/>
@@ -5489,7 +5532,7 @@
       <c r="O52" s="147"/>
       <c r="P52" s="147"/>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:16">
       <c r="B53" s="146"/>
       <c r="C53" s="147"/>
       <c r="D53" s="147"/>
@@ -5506,7 +5549,7 @@
       <c r="O53" s="147"/>
       <c r="P53" s="147"/>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:16">
       <c r="B54" s="146"/>
       <c r="C54" s="147"/>
       <c r="D54" s="147"/>
@@ -5523,7 +5566,7 @@
       <c r="O54" s="147"/>
       <c r="P54" s="147"/>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:16">
       <c r="B55" s="146"/>
       <c r="C55" s="147"/>
       <c r="D55" s="147"/>
@@ -5540,7 +5583,7 @@
       <c r="O55" s="147"/>
       <c r="P55" s="147"/>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:16">
       <c r="B56" s="146"/>
       <c r="C56" s="147"/>
       <c r="D56" s="147"/>
@@ -5557,7 +5600,7 @@
       <c r="O56" s="147"/>
       <c r="P56" s="147"/>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:16">
       <c r="B57" s="146"/>
       <c r="C57" s="147"/>
       <c r="D57" s="147"/>
@@ -5574,7 +5617,7 @@
       <c r="O57" s="147"/>
       <c r="P57" s="147"/>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:16">
       <c r="B58" s="146"/>
       <c r="C58" s="147"/>
       <c r="D58" s="147"/>
@@ -5591,7 +5634,7 @@
       <c r="O58" s="147"/>
       <c r="P58" s="147"/>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:16">
       <c r="B59" s="146"/>
       <c r="C59" s="147"/>
       <c r="D59" s="147"/>
@@ -5608,7 +5651,7 @@
       <c r="O59" s="147"/>
       <c r="P59" s="147"/>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:16">
       <c r="B60" s="146"/>
       <c r="C60" s="147"/>
       <c r="D60" s="147"/>
@@ -5625,7 +5668,7 @@
       <c r="O60" s="147"/>
       <c r="P60" s="147"/>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:16">
       <c r="B61" s="146"/>
       <c r="C61" s="147"/>
       <c r="D61" s="147"/>
@@ -5642,7 +5685,7 @@
       <c r="O61" s="147"/>
       <c r="P61" s="147"/>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:16">
       <c r="B62" s="146"/>
       <c r="C62" s="147"/>
       <c r="D62" s="147"/>
@@ -5659,7 +5702,7 @@
       <c r="O62" s="147"/>
       <c r="P62" s="147"/>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:16">
       <c r="B63" s="146"/>
       <c r="C63" s="147"/>
       <c r="D63" s="147"/>
@@ -5676,7 +5719,7 @@
       <c r="O63" s="147"/>
       <c r="P63" s="147"/>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:16">
       <c r="B64" s="146"/>
       <c r="C64" s="147"/>
       <c r="D64" s="147"/>
@@ -5693,7 +5736,7 @@
       <c r="O64" s="147"/>
       <c r="P64" s="147"/>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:16">
       <c r="B65" s="146"/>
       <c r="C65" s="147"/>
       <c r="D65" s="147"/>
@@ -5710,7 +5753,7 @@
       <c r="O65" s="147"/>
       <c r="P65" s="147"/>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:16">
       <c r="B66" s="146"/>
       <c r="C66" s="147"/>
       <c r="D66" s="147"/>
@@ -5727,7 +5770,7 @@
       <c r="O66" s="147"/>
       <c r="P66" s="147"/>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16">
       <c r="B67" s="146"/>
       <c r="C67" s="147"/>
       <c r="D67" s="147"/>
@@ -5744,7 +5787,7 @@
       <c r="O67" s="147"/>
       <c r="P67" s="147"/>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:16">
       <c r="B68" s="146"/>
       <c r="C68" s="147"/>
       <c r="D68" s="147"/>
@@ -5761,7 +5804,7 @@
       <c r="O68" s="147"/>
       <c r="P68" s="147"/>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:16">
       <c r="B69" s="146"/>
       <c r="C69" s="147"/>
       <c r="D69" s="147"/>
@@ -5778,7 +5821,7 @@
       <c r="O69" s="147"/>
       <c r="P69" s="147"/>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:16">
       <c r="B70" s="146"/>
       <c r="C70" s="147"/>
       <c r="D70" s="147"/>
@@ -5795,7 +5838,7 @@
       <c r="O70" s="147"/>
       <c r="P70" s="147"/>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:16">
       <c r="B71" s="146"/>
       <c r="C71" s="147"/>
       <c r="D71" s="147"/>
@@ -5812,7 +5855,7 @@
       <c r="O71" s="147"/>
       <c r="P71" s="147"/>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:16">
       <c r="B72" s="146"/>
       <c r="C72" s="147"/>
       <c r="D72" s="147"/>
@@ -5829,7 +5872,7 @@
       <c r="O72" s="147"/>
       <c r="P72" s="147"/>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16">
       <c r="B73" s="146"/>
       <c r="C73" s="147"/>
       <c r="D73" s="147"/>
@@ -5846,7 +5889,7 @@
       <c r="O73" s="147"/>
       <c r="P73" s="147"/>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:16">
       <c r="B74" s="146"/>
       <c r="C74" s="147"/>
       <c r="D74" s="147" t="s">
@@ -5869,7 +5912,7 @@
       <c r="O74" s="147"/>
       <c r="P74" s="147"/>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:16">
       <c r="B75" s="146"/>
       <c r="C75" s="147"/>
       <c r="D75" s="147" t="s">
@@ -5888,7 +5931,7 @@
       <c r="O75" s="147"/>
       <c r="P75" s="147"/>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:16">
       <c r="B76" s="146"/>
       <c r="C76" s="147"/>
       <c r="D76" s="147"/>
@@ -5905,7 +5948,7 @@
       <c r="O76" s="147"/>
       <c r="P76" s="147"/>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16">
       <c r="B77" s="146"/>
       <c r="C77" s="147"/>
       <c r="D77" s="147"/>
@@ -5922,7 +5965,7 @@
       <c r="O77" s="147"/>
       <c r="P77" s="147"/>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:16">
       <c r="B78" s="146"/>
       <c r="C78" s="147"/>
       <c r="D78" s="147"/>
@@ -5939,7 +5982,7 @@
       <c r="O78" s="147"/>
       <c r="P78" s="147"/>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:16">
       <c r="B79" s="146"/>
       <c r="C79" s="147"/>
       <c r="D79" s="147"/>
@@ -5956,7 +5999,7 @@
       <c r="O79" s="147"/>
       <c r="P79" s="147"/>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16">
       <c r="B80" s="146"/>
       <c r="C80" s="147"/>
       <c r="D80" s="147"/>
@@ -5973,7 +6016,7 @@
       <c r="O80" s="147"/>
       <c r="P80" s="147"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:16">
       <c r="B81" s="146"/>
       <c r="C81" s="147"/>
       <c r="D81" s="147"/>
@@ -5990,7 +6033,7 @@
       <c r="O81" s="147"/>
       <c r="P81" s="147"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:16">
       <c r="B82" s="146"/>
       <c r="C82" s="147"/>
       <c r="D82" s="147"/>
@@ -6007,7 +6050,7 @@
       <c r="O82" s="147"/>
       <c r="P82" s="147"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:16">
       <c r="B83" s="146"/>
       <c r="C83" s="147"/>
       <c r="D83" s="147"/>
@@ -6024,7 +6067,7 @@
       <c r="O83" s="147"/>
       <c r="P83" s="147"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:16">
       <c r="B84" s="146"/>
       <c r="C84" s="147"/>
       <c r="D84" s="147"/>
@@ -6041,7 +6084,7 @@
       <c r="O84" s="147"/>
       <c r="P84" s="147"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:16">
       <c r="B85" s="146"/>
       <c r="C85" s="147"/>
       <c r="D85" s="147"/>
@@ -6058,7 +6101,7 @@
       <c r="O85" s="147"/>
       <c r="P85" s="147"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:16">
       <c r="B86" s="146"/>
       <c r="C86" s="147"/>
       <c r="D86" s="147"/>
@@ -6075,7 +6118,7 @@
       <c r="O86" s="147"/>
       <c r="P86" s="147"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:16">
       <c r="B87" s="146"/>
       <c r="C87" s="147"/>
       <c r="D87" s="147"/>
@@ -6092,7 +6135,7 @@
       <c r="O87" s="147"/>
       <c r="P87" s="147"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:16">
       <c r="B88" s="146"/>
       <c r="C88" s="147"/>
       <c r="D88" s="147"/>
@@ -6109,7 +6152,7 @@
       <c r="O88" s="147"/>
       <c r="P88" s="147"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:16">
       <c r="B89" s="146"/>
       <c r="C89" s="147"/>
       <c r="D89" s="147"/>
@@ -6126,7 +6169,7 @@
       <c r="O89" s="147"/>
       <c r="P89" s="147"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:16">
       <c r="B90" s="146"/>
       <c r="C90" s="147" t="s">
         <v>85</v>
@@ -6145,7 +6188,7 @@
       <c r="O90" s="147"/>
       <c r="P90" s="147"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:16">
       <c r="B91" s="146"/>
       <c r="C91" s="147" t="s">
         <v>138</v>
@@ -6164,7 +6207,7 @@
       <c r="O91" s="147"/>
       <c r="P91" s="147"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:16">
       <c r="B92" s="146"/>
       <c r="C92" s="147"/>
       <c r="D92" s="147"/>
@@ -6181,7 +6224,7 @@
       <c r="O92" s="147"/>
       <c r="P92" s="147"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:16">
       <c r="B93" s="146"/>
       <c r="C93" s="147"/>
       <c r="D93" s="147"/>
@@ -6202,7 +6245,7 @@
       <c r="O93" s="147"/>
       <c r="P93" s="147"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:16">
       <c r="B94" s="146"/>
       <c r="C94" s="147"/>
       <c r="D94" s="147"/>
@@ -6219,7 +6262,7 @@
       <c r="O94" s="147"/>
       <c r="P94" s="147"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:16">
       <c r="B95" s="146"/>
       <c r="C95" s="147"/>
       <c r="D95" s="147"/>
@@ -6236,7 +6279,7 @@
       <c r="O95" s="147"/>
       <c r="P95" s="147"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:16">
       <c r="B96" s="146"/>
       <c r="C96" s="147"/>
       <c r="D96" s="147"/>
@@ -6253,7 +6296,7 @@
       <c r="O96" s="147"/>
       <c r="P96" s="147"/>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:16">
       <c r="B97" s="146"/>
       <c r="C97" s="147"/>
       <c r="D97" s="147"/>
@@ -6270,7 +6313,7 @@
       <c r="O97" s="147"/>
       <c r="P97" s="147"/>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:16">
       <c r="B98" s="146"/>
       <c r="C98" s="147"/>
       <c r="D98" s="147"/>
@@ -6287,7 +6330,7 @@
       <c r="O98" s="147"/>
       <c r="P98" s="147"/>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:16">
       <c r="B99" s="146"/>
       <c r="C99" s="147"/>
       <c r="D99" s="147"/>
@@ -6304,7 +6347,7 @@
       <c r="O99" s="147"/>
       <c r="P99" s="147"/>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:16">
       <c r="B100" s="146"/>
       <c r="C100" s="147"/>
       <c r="D100" s="147"/>
@@ -6321,7 +6364,7 @@
       <c r="O100" s="147"/>
       <c r="P100" s="147"/>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:16">
       <c r="B101" s="146"/>
       <c r="C101" s="147"/>
       <c r="D101" s="147"/>
@@ -6338,7 +6381,7 @@
       <c r="O101" s="147"/>
       <c r="P101" s="147"/>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:16">
       <c r="B102" s="146"/>
       <c r="C102" s="147"/>
       <c r="D102" s="147"/>
@@ -6355,7 +6398,7 @@
       <c r="O102" s="147"/>
       <c r="P102" s="147"/>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:16">
       <c r="B103" s="146"/>
       <c r="C103" s="147"/>
       <c r="D103" s="147"/>
@@ -6372,7 +6415,7 @@
       <c r="O103" s="147"/>
       <c r="P103" s="147"/>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:16">
       <c r="B104" s="146"/>
       <c r="C104" s="147"/>
       <c r="D104" s="147"/>
@@ -6389,7 +6432,7 @@
       <c r="O104" s="147"/>
       <c r="P104" s="147"/>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:16">
       <c r="B105" s="146"/>
       <c r="C105" s="147"/>
       <c r="D105" s="147"/>
@@ -6406,7 +6449,7 @@
       <c r="O105" s="147"/>
       <c r="P105" s="147"/>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:16">
       <c r="B106" s="146"/>
       <c r="C106" s="147"/>
       <c r="D106" s="147"/>
@@ -6423,7 +6466,7 @@
       <c r="O106" s="147"/>
       <c r="P106" s="147"/>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:16">
       <c r="B107" s="146"/>
       <c r="C107" s="147"/>
       <c r="D107" s="147"/>
@@ -6440,7 +6483,7 @@
       <c r="O107" s="147"/>
       <c r="P107" s="147"/>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:16">
       <c r="B108" s="146"/>
       <c r="C108" s="147"/>
       <c r="D108" s="147"/>
@@ -6457,7 +6500,7 @@
       <c r="O108" s="147"/>
       <c r="P108" s="147"/>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:16">
       <c r="B109" s="146"/>
       <c r="C109" s="147"/>
       <c r="D109" s="147"/>
@@ -6474,7 +6517,7 @@
       <c r="O109" s="147"/>
       <c r="P109" s="147"/>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:16">
       <c r="B110" s="146"/>
       <c r="C110" s="147"/>
       <c r="D110" s="147"/>
@@ -6491,7 +6534,7 @@
       <c r="O110" s="147"/>
       <c r="P110" s="147"/>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:16">
       <c r="B111" s="146"/>
       <c r="C111" s="147"/>
       <c r="D111" s="147"/>
@@ -6508,7 +6551,7 @@
       <c r="O111" s="147"/>
       <c r="P111" s="147"/>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:16">
       <c r="B112" s="146"/>
       <c r="C112" s="147" t="s">
         <v>78</v>
@@ -6527,7 +6570,7 @@
       <c r="O112" s="147"/>
       <c r="P112" s="147"/>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:16">
       <c r="B113" s="146"/>
       <c r="C113" s="147" t="s">
         <v>139</v>
@@ -6546,7 +6589,7 @@
       <c r="O113" s="147"/>
       <c r="P113" s="147"/>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:16">
       <c r="B114" s="146"/>
       <c r="C114" s="147"/>
       <c r="D114" s="147"/>
@@ -6563,7 +6606,7 @@
       <c r="O114" s="147"/>
       <c r="P114" s="147"/>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:16">
       <c r="B115" s="146"/>
       <c r="C115" s="147"/>
       <c r="D115" s="147"/>
@@ -6580,7 +6623,7 @@
       <c r="O115" s="147"/>
       <c r="P115" s="147"/>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:16">
       <c r="B116" s="146"/>
       <c r="C116" s="147"/>
       <c r="D116" s="147"/>
@@ -6597,7 +6640,7 @@
       <c r="O116" s="147"/>
       <c r="P116" s="147"/>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:16">
       <c r="B117" s="146"/>
       <c r="C117" s="147"/>
       <c r="D117" s="147"/>
@@ -6614,7 +6657,7 @@
       <c r="O117" s="147"/>
       <c r="P117" s="147"/>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:16">
       <c r="B118" s="146"/>
       <c r="C118" s="147"/>
       <c r="D118" s="147"/>
@@ -6631,7 +6674,7 @@
       <c r="O118" s="147"/>
       <c r="P118" s="147"/>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:16">
       <c r="B119" s="146"/>
       <c r="C119" s="147"/>
       <c r="D119" s="147"/>
@@ -6648,7 +6691,7 @@
       <c r="O119" s="147"/>
       <c r="P119" s="147"/>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:16">
       <c r="B120" s="146"/>
       <c r="C120" s="147"/>
       <c r="D120" s="147"/>
@@ -6665,7 +6708,7 @@
       <c r="O120" s="147"/>
       <c r="P120" s="147"/>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:16">
       <c r="B121" s="146"/>
       <c r="C121" s="147"/>
       <c r="D121" s="147"/>
@@ -6682,7 +6725,7 @@
       <c r="O121" s="147"/>
       <c r="P121" s="147"/>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:16">
       <c r="B122" s="146"/>
       <c r="C122" s="147"/>
       <c r="D122" s="147"/>
@@ -6699,7 +6742,7 @@
       <c r="O122" s="147"/>
       <c r="P122" s="147"/>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:16">
       <c r="B123" s="146"/>
       <c r="C123" s="147"/>
       <c r="D123" s="147"/>
@@ -6716,7 +6759,7 @@
       <c r="O123" s="147"/>
       <c r="P123" s="147"/>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:16">
       <c r="B124" s="146"/>
       <c r="C124" s="147"/>
       <c r="D124" s="147"/>
@@ -6737,7 +6780,7 @@
       <c r="O124" s="147"/>
       <c r="P124" s="147"/>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:16">
       <c r="B125" s="146"/>
       <c r="C125" s="147"/>
       <c r="D125" s="147"/>
@@ -6758,7 +6801,7 @@
       <c r="O125" s="147"/>
       <c r="P125" s="147"/>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:16">
       <c r="B126" s="146"/>
       <c r="C126" s="147"/>
       <c r="D126" s="147"/>
@@ -6775,7 +6818,7 @@
       <c r="O126" s="147"/>
       <c r="P126" s="147"/>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:16">
       <c r="B127" s="146"/>
       <c r="C127" s="147"/>
       <c r="D127" s="147"/>
@@ -6792,7 +6835,7 @@
       <c r="O127" s="147"/>
       <c r="P127" s="147"/>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:16">
       <c r="B128" s="146"/>
       <c r="C128" s="147"/>
       <c r="D128" s="147"/>
@@ -6809,7 +6852,7 @@
       <c r="O128" s="147"/>
       <c r="P128" s="147"/>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:16">
       <c r="B129" s="146"/>
       <c r="C129" s="147"/>
       <c r="D129" s="147"/>
@@ -6826,7 +6869,7 @@
       <c r="O129" s="147"/>
       <c r="P129" s="147"/>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:16">
       <c r="B130" s="146"/>
       <c r="C130" s="147"/>
       <c r="D130" s="147"/>
@@ -6843,7 +6886,7 @@
       <c r="O130" s="147"/>
       <c r="P130" s="147"/>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:16">
       <c r="B131" s="146"/>
       <c r="C131" s="147"/>
       <c r="D131" s="147"/>
@@ -6860,7 +6903,7 @@
       <c r="O131" s="147"/>
       <c r="P131" s="147"/>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:16">
       <c r="B132" s="146"/>
       <c r="C132" s="147"/>
       <c r="D132" s="147"/>
@@ -6877,7 +6920,7 @@
       <c r="O132" s="147"/>
       <c r="P132" s="147"/>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:16">
       <c r="B133" s="146"/>
       <c r="C133" s="147"/>
       <c r="D133" s="147"/>
@@ -6894,7 +6937,7 @@
       <c r="O133" s="147"/>
       <c r="P133" s="147"/>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:16">
       <c r="B134" s="146"/>
       <c r="C134" s="147"/>
       <c r="D134" s="147"/>
@@ -6911,7 +6954,7 @@
       <c r="O134" s="147"/>
       <c r="P134" s="147"/>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:16">
       <c r="B135" s="146"/>
       <c r="C135" s="147"/>
       <c r="D135" s="147"/>
@@ -6928,7 +6971,7 @@
       <c r="O135" s="147"/>
       <c r="P135" s="147"/>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:16">
       <c r="B136" s="146"/>
       <c r="C136" s="147"/>
       <c r="D136" s="147"/>
@@ -6945,7 +6988,7 @@
       <c r="O136" s="147"/>
       <c r="P136" s="147"/>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:16">
       <c r="B137" s="146"/>
       <c r="C137" s="147"/>
       <c r="D137" s="147"/>
@@ -6962,7 +7005,7 @@
       <c r="O137" s="147"/>
       <c r="P137" s="147"/>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:16">
       <c r="B138" s="146"/>
       <c r="C138" s="147"/>
       <c r="D138" s="147"/>
@@ -6979,7 +7022,7 @@
       <c r="O138" s="147"/>
       <c r="P138" s="147"/>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:16">
       <c r="B139" s="146"/>
       <c r="C139" s="147"/>
       <c r="D139" s="147"/>
@@ -6996,7 +7039,7 @@
       <c r="O139" s="147"/>
       <c r="P139" s="147"/>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:16">
       <c r="B140" s="146"/>
       <c r="C140" s="147"/>
       <c r="D140" s="147"/>
@@ -7013,7 +7056,7 @@
       <c r="O140" s="147"/>
       <c r="P140" s="147"/>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:16">
       <c r="B141" s="146"/>
       <c r="C141" s="147"/>
       <c r="D141" s="147"/>
@@ -7030,7 +7073,7 @@
       <c r="O141" s="147"/>
       <c r="P141" s="147"/>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:16">
       <c r="B142" s="146"/>
       <c r="C142" s="147"/>
       <c r="D142" s="147"/>
@@ -7047,7 +7090,7 @@
       <c r="O142" s="147"/>
       <c r="P142" s="147"/>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:16">
       <c r="B143" s="146"/>
       <c r="C143" s="147"/>
       <c r="D143" s="147"/>
@@ -7064,7 +7107,7 @@
       <c r="O143" s="147"/>
       <c r="P143" s="147"/>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:16">
       <c r="B144" s="146"/>
       <c r="C144" s="147"/>
       <c r="D144" s="147"/>
@@ -7081,7 +7124,7 @@
       <c r="O144" s="147"/>
       <c r="P144" s="147"/>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:16">
       <c r="B145" s="146"/>
       <c r="C145" s="147"/>
       <c r="D145" s="147"/>
@@ -7098,7 +7141,7 @@
       <c r="O145" s="147"/>
       <c r="P145" s="147"/>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:16">
       <c r="B146" s="146"/>
       <c r="C146" s="147"/>
       <c r="D146" s="147"/>
@@ -7115,7 +7158,7 @@
       <c r="O146" s="147"/>
       <c r="P146" s="147"/>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:16">
       <c r="B147" s="146"/>
       <c r="C147" s="147"/>
       <c r="D147" s="147"/>
@@ -7132,7 +7175,7 @@
       <c r="O147" s="147"/>
       <c r="P147" s="147"/>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:16">
       <c r="B148" s="146"/>
       <c r="C148" s="147"/>
       <c r="D148" s="147"/>
